--- a/df_clustrs.xlsx
+++ b/df_clustrs.xlsx
@@ -5923,45 +5923,45 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>173499</v>
+        <v>173472</v>
       </c>
       <c r="C80" t="n">
-        <v>67.41061666666667</v>
+        <v>86.79283333333332</v>
       </c>
       <c r="D80" t="n">
-        <v>6.8605</v>
+        <v>6.7413</v>
       </c>
       <c r="E80" t="n">
-        <v>-74.53789999999999</v>
+        <v>-74.6112</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1197383133330709</v>
+        <v>0.1176578808646938</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.300931772522281</v>
+        <v>-1.302211098863993</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2016-10-31T16:55:35.363000</t>
+          <t>2016-10-31T16:36:12.430000</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>-1</v>
       </c>
       <c r="J80" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K80" t="n">
-        <v>-34</v>
+        <v>-45</v>
       </c>
       <c r="L80" t="n">
         <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>949113.3797730238</v>
+        <v>940996.8579467835</v>
       </c>
       <c r="N80" t="n">
-        <v>1250423.078568085</v>
+        <v>1237248.604935422</v>
       </c>
       <c r="O80" t="n">
         <v>-75.16876810387913</v>
@@ -5970,7 +5970,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q80" t="n">
-        <v>74.37431734982451</v>
+        <v>67.98085746441889</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -5992,45 +5992,45 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>173500</v>
+        <v>173473</v>
       </c>
       <c r="C81" t="n">
-        <v>67.40745</v>
+        <v>86.79166666666669</v>
       </c>
       <c r="D81" t="n">
-        <v>6.8136</v>
+        <v>6.7397</v>
       </c>
       <c r="E81" t="n">
-        <v>-74.5538</v>
+        <v>-74.5912</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1189197539138857</v>
+        <v>0.1176299555966619</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.301209279873348</v>
+        <v>-1.301862033013594</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2016-10-31T16:55:35.553000</t>
+          <t>2016-10-31T16:36:12.500000</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>-1</v>
       </c>
       <c r="J81" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K81" t="n">
-        <v>-15</v>
+        <v>-44</v>
       </c>
       <c r="L81" t="n">
         <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>947350.7985931328</v>
+        <v>943207.8613612674</v>
       </c>
       <c r="N81" t="n">
-        <v>1245237.947671547</v>
+        <v>1237069.282132538</v>
       </c>
       <c r="O81" t="n">
         <v>-75.16876810387913</v>
@@ -6039,7 +6039,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q81" t="n">
-        <v>73.15394096998159</v>
+        <v>70.05520674406202</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -6061,45 +6061,45 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>173501</v>
+        <v>173474</v>
       </c>
       <c r="C82" t="n">
-        <v>67.40638333333334</v>
+        <v>86.79121666666668</v>
       </c>
       <c r="D82" t="n">
-        <v>6.8267</v>
+        <v>6.715900000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>-74.5453</v>
+        <v>-74.61920000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1191483920458969</v>
+        <v>0.1172145672346872</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.301060926886929</v>
+        <v>-1.302350725204153</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2016-10-31T16:55:35.617000</t>
+          <t>2016-10-31T16:36:12.527000</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>-1</v>
       </c>
       <c r="J82" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K82" t="n">
-        <v>-8</v>
+        <v>-19</v>
       </c>
       <c r="L82" t="n">
         <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>948291.8116751526</v>
+        <v>940109.2683292866</v>
       </c>
       <c r="N82" t="n">
-        <v>1246685.804647252</v>
+        <v>1234440.482582925</v>
       </c>
       <c r="O82" t="n">
         <v>-75.16876810387913</v>
@@ -6108,7 +6108,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q82" t="n">
-        <v>73.91749537274642</v>
+        <v>67.46586537892483</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -6130,45 +6130,45 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>173502</v>
+        <v>173475</v>
       </c>
       <c r="C83" t="n">
-        <v>67.40566666666668</v>
+        <v>86.78755000000002</v>
       </c>
       <c r="D83" t="n">
-        <v>6.8156</v>
+        <v>6.7465</v>
       </c>
       <c r="E83" t="n">
-        <v>-74.5536</v>
+        <v>-74.6097</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1189546604989255</v>
+        <v>0.1177486379857974</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.301205789214844</v>
+        <v>-1.302184918925213</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2016-10-31T16:55:35.660000</t>
+          <t>2016-10-31T16:36:12.747000</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>-1</v>
       </c>
       <c r="J83" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K83" t="n">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="L83" t="n">
         <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>947373.1251265096</v>
+        <v>941163.3247160864</v>
       </c>
       <c r="N83" t="n">
-        <v>1245459.113163775</v>
+        <v>1237823.514004211</v>
       </c>
       <c r="O83" t="n">
         <v>-75.16876810387913</v>
@@ -6177,7 +6177,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q83" t="n">
-        <v>73.15480368596826</v>
+        <v>68.07405843924298</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -6199,45 +6199,45 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>173503</v>
+        <v>173476</v>
       </c>
       <c r="C84" t="n">
-        <v>66.82278333333333</v>
+        <v>82.56866666666666</v>
       </c>
       <c r="D84" t="n">
-        <v>6.8041</v>
+        <v>6.741900000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>-74.536</v>
+        <v>-74.6421</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1187539476349462</v>
+        <v>0.1176683528402057</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.300898611266494</v>
+        <v>-1.302750405602859</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:10.633000</t>
+          <t>2016-10-31T16:40:25.880000</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>-1</v>
       </c>
       <c r="J84" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="K84" t="n">
-        <v>-11</v>
+        <v>-98</v>
       </c>
       <c r="L84" t="n">
         <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>949317.4510125908</v>
+        <v>937580.6328021731</v>
       </c>
       <c r="N84" t="n">
-        <v>1244185.406509107</v>
+        <v>1237318.805545436</v>
       </c>
       <c r="O84" t="n">
         <v>-75.16876810387913</v>
@@ -6246,7 +6246,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q84" t="n">
-        <v>75.11999445542881</v>
+        <v>64.81969800893246</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -6268,45 +6268,45 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>173504</v>
+        <v>173477</v>
       </c>
       <c r="C85" t="n">
-        <v>66.82233333333333</v>
+        <v>82.56766666666667</v>
       </c>
       <c r="D85" t="n">
-        <v>6.8239</v>
+        <v>6.7332</v>
       </c>
       <c r="E85" t="n">
-        <v>-74.5577</v>
+        <v>-74.6347</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1190995228268411</v>
+        <v>0.1175165091952822</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.301277347714176</v>
+        <v>-1.302621251238212</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:10.660000</t>
+          <t>2016-10-31T16:40:25.940000</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>-1</v>
       </c>
       <c r="J85" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K85" t="n">
-        <v>-26</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>946920.8172990588</v>
+        <v>938397.679065319</v>
       </c>
       <c r="N85" t="n">
-        <v>1246377.490017959</v>
+        <v>1236355.69154355</v>
       </c>
       <c r="O85" t="n">
         <v>-75.16876810387913</v>
@@ -6315,7 +6315,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q85" t="n">
-        <v>72.64071181567938</v>
+        <v>65.67816036356</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -6337,45 +6337,45 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>173505</v>
+        <v>173478</v>
       </c>
       <c r="C86" t="n">
-        <v>66.822</v>
+        <v>80.19438333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>6.7975</v>
+        <v>6.8859</v>
       </c>
       <c r="E86" t="n">
-        <v>-74.54430000000001</v>
+        <v>-74.5545</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1186387559043146</v>
+        <v>0.1201816269630775</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.301043473594409</v>
+        <v>-1.301221497178112</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:10.680000</t>
+          <t>2016-10-31T16:42:48.337000</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K86" t="n">
-        <v>-17</v>
+        <v>12</v>
       </c>
       <c r="L86" t="n">
         <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>948399.2300184936</v>
+        <v>947281.3583803762</v>
       </c>
       <c r="N86" t="n">
-        <v>1243456.367565445</v>
+        <v>1253233.957249296</v>
       </c>
       <c r="O86" t="n">
         <v>-75.16876810387913</v>
@@ -6384,7 +6384,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q86" t="n">
-        <v>74.31390173795508</v>
+        <v>72.37781372628908</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -6406,45 +6406,45 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>173506</v>
+        <v>173479</v>
       </c>
       <c r="C87" t="n">
-        <v>66.82083333333334</v>
+        <v>79.87555</v>
       </c>
       <c r="D87" t="n">
-        <v>6.8256</v>
+        <v>6.826000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>-74.538</v>
+        <v>-74.5735</v>
       </c>
       <c r="F87" t="n">
-        <v>0.119129193424125</v>
+        <v>0.1191361747411329</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.300933517851533</v>
+        <v>-1.301553109735991</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:10.750000</t>
+          <t>2016-10-31T16:43:07.467000</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>-1</v>
       </c>
       <c r="J87" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K87" t="n">
-        <v>-36</v>
+        <v>-28</v>
       </c>
       <c r="L87" t="n">
         <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>949098.6304281484</v>
+        <v>945174.5233591628</v>
       </c>
       <c r="N87" t="n">
-        <v>1246563.374815654</v>
+        <v>1246611.505309315</v>
       </c>
       <c r="O87" t="n">
         <v>-75.16876810387913</v>
@@ -6453,7 +6453,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q87" t="n">
-        <v>74.6977086638188</v>
+        <v>70.96156828808911</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -6475,45 +6475,45 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>173507</v>
+        <v>173480</v>
       </c>
       <c r="C88" t="n">
-        <v>66.21271666666668</v>
+        <v>77.56395000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>6.857</v>
+        <v>6.8249</v>
       </c>
       <c r="E88" t="n">
-        <v>-74.53919999999999</v>
+        <v>-74.57510000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1196772268092512</v>
+        <v>0.119116976119361</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.300954461802557</v>
+        <v>-1.301581035004023</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:47.237000</t>
+          <t>2016-10-31T16:45:26.163000</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>-1</v>
       </c>
       <c r="J88" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K88" t="n">
-        <v>-52</v>
+        <v>-37</v>
       </c>
       <c r="L88" t="n">
         <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>948969.3166983308</v>
+        <v>944997.5342524005</v>
       </c>
       <c r="N88" t="n">
-        <v>1250036.139000186</v>
+        <v>1246490.034135762</v>
       </c>
       <c r="O88" t="n">
         <v>-75.16876810387913</v>
@@ -6522,7 +6522,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q88" t="n">
-        <v>74.26962749526189</v>
+        <v>70.80523072664542</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -6544,45 +6544,45 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>173508</v>
+        <v>173481</v>
       </c>
       <c r="C89" t="n">
-        <v>66.21161666666667</v>
+        <v>77.56195000000002</v>
       </c>
       <c r="D89" t="n">
-        <v>6.8333</v>
+        <v>6.8093</v>
       </c>
       <c r="E89" t="n">
-        <v>-74.5352</v>
+        <v>-74.6358</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1192635837765285</v>
+        <v>0.1188447047560499</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.300884648632478</v>
+        <v>-1.302640449859984</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:47.303000</t>
+          <t>2016-10-31T16:45:26.283000</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>-1</v>
       </c>
       <c r="J89" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K89" t="n">
-        <v>-33</v>
+        <v>-18</v>
       </c>
       <c r="L89" t="n">
         <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>949408.9491584188</v>
+        <v>938285.7305213688</v>
       </c>
       <c r="N89" t="n">
-        <v>1247414.649481683</v>
+        <v>1244772.098599075</v>
       </c>
       <c r="O89" t="n">
         <v>-75.16876810387913</v>
@@ -6591,7 +6591,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q89" t="n">
-        <v>74.91860105553425</v>
+        <v>64.66698965839542</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -6613,45 +6613,45 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>173509</v>
+        <v>173482</v>
       </c>
       <c r="C90" t="n">
-        <v>66.20928333333333</v>
+        <v>76.22321666666667</v>
       </c>
       <c r="D90" t="n">
-        <v>6.8236</v>
+        <v>6.785100000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>-74.5596</v>
+        <v>-74.54620000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1190942868390851</v>
+        <v>0.1184223350770672</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.301310508969964</v>
+        <v>-1.301076634850197</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:47.443000</t>
+          <t>2016-10-31T16:46:46.607000</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K90" t="n">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="L90" t="n">
         <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>946710.7582365696</v>
+        <v>948187.8664442743</v>
       </c>
       <c r="N90" t="n">
-        <v>1246344.521447278</v>
+        <v>1242085.212044154</v>
       </c>
       <c r="O90" t="n">
         <v>-75.16876810387913</v>
@@ -6660,7 +6660,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q90" t="n">
-        <v>72.44412951804499</v>
+        <v>74.24102156163055</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -6682,45 +6682,45 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>173510</v>
+        <v>173483</v>
       </c>
       <c r="C91" t="n">
-        <v>66.20921666666668</v>
+        <v>76.14505000000003</v>
       </c>
       <c r="D91" t="n">
-        <v>6.7705</v>
+        <v>6.6954</v>
       </c>
       <c r="E91" t="n">
-        <v>-74.57040000000001</v>
+        <v>-74.6803</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1181675170062761</v>
+        <v>0.1168567747380283</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.30149900452918</v>
+        <v>-1.303417121377121</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2016-10-31T16:56:47.447000</t>
+          <t>2016-10-31T16:46:51.297000</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K91" t="n">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="L91" t="n">
         <v>2</v>
       </c>
       <c r="M91" t="n">
-        <v>945510.9457914556</v>
+        <v>933350.8937417704</v>
       </c>
       <c r="N91" t="n">
-        <v>1240473.195683541</v>
+        <v>1232181.16747737</v>
       </c>
       <c r="O91" t="n">
         <v>-75.16876810387913</v>
@@ -6729,7 +6729,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q91" t="n">
-        <v>71.86789410859956</v>
+        <v>61.58056672075089</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -6751,45 +6751,45 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>173511</v>
+        <v>173484</v>
       </c>
       <c r="C92" t="n">
-        <v>61.37861666666666</v>
+        <v>75.95650000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>7.975</v>
+        <v>6.831300000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>-75.2799</v>
+        <v>-74.562</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1391900078465478</v>
+        <v>0.1192286771914886</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.313882115572079</v>
+        <v>-1.301352396872012</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2016-10-31T17:01:37.283000</t>
+          <t>2016-10-31T16:47:02.610000</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>-1</v>
       </c>
       <c r="J92" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K92" t="n">
-        <v>-85</v>
+        <v>-29</v>
       </c>
       <c r="L92" t="n">
         <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>867426.8648605258</v>
+        <v>946446.3181843759</v>
       </c>
       <c r="N92" t="n">
-        <v>1373847.373004573</v>
+        <v>1247196.359879739</v>
       </c>
       <c r="O92" t="n">
         <v>-75.16876810387913</v>
@@ -6798,7 +6798,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q92" t="n">
-        <v>14.96261801674519</v>
+        <v>72.1147013555605</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>102</v>
       </c>
       <c r="T92" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -6820,45 +6820,45 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>173512</v>
+        <v>173485</v>
       </c>
       <c r="C93" t="n">
-        <v>58.03638333333333</v>
+        <v>71.51888333333333</v>
       </c>
       <c r="D93" t="n">
-        <v>6.8379</v>
+        <v>6.8239</v>
       </c>
       <c r="E93" t="n">
-        <v>-74.5361</v>
+        <v>-74.55199999999998</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1193438689221202</v>
+        <v>0.1190995228268411</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.300900356595746</v>
+        <v>-1.301177863946812</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2016-10-31T17:04:57.817000</t>
+          <t>2016-10-31T16:51:28.867000</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>-1</v>
       </c>
       <c r="J93" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="L93" t="n">
         <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>949309.9501166248</v>
+        <v>947550.8946353366</v>
       </c>
       <c r="N93" t="n">
-        <v>1247923.474102128</v>
+        <v>1246376.866291726</v>
       </c>
       <c r="O93" t="n">
         <v>-75.16876810387913</v>
@@ -6867,7 +6867,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q93" t="n">
-        <v>74.77930095908377</v>
+        <v>73.23993157820458</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -6889,45 +6889,45 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>173513</v>
+        <v>173486</v>
       </c>
       <c r="C94" t="n">
-        <v>58.03561666666667</v>
+        <v>71.51838333333333</v>
       </c>
       <c r="D94" t="n">
-        <v>6.8232</v>
+        <v>6.8723</v>
       </c>
       <c r="E94" t="n">
-        <v>-74.5346</v>
+        <v>-74.5348</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1190873055220771</v>
+        <v>0.1199442621848063</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.300874176656966</v>
+        <v>-1.30087766731547</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2016-10-31T17:04:57.863000</t>
+          <t>2016-10-31T16:51:28.897000</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>-1</v>
       </c>
       <c r="J94" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K94" t="n">
-        <v>-31</v>
+        <v>-10</v>
       </c>
       <c r="L94" t="n">
         <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>949474.2121135556</v>
+        <v>949457.2716898714</v>
       </c>
       <c r="N94" t="n">
-        <v>1246297.592984461</v>
+        <v>1251727.755177798</v>
       </c>
       <c r="O94" t="n">
         <v>-75.16876810387913</v>
@@ -6936,7 +6936,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q94" t="n">
-        <v>75.07969727319329</v>
+        <v>74.59311030063222</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -6958,45 +6958,45 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>173514</v>
+        <v>173487</v>
       </c>
       <c r="C95" t="n">
-        <v>58.03505</v>
+        <v>71.51411666666669</v>
       </c>
       <c r="D95" t="n">
-        <v>6.812</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>-74.5488</v>
+        <v>-74.5442</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1188918286458538</v>
+        <v>0.1195550537616115</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.301122013410749</v>
+        <v>-1.301041728265157</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2016-10-31T17:04:57.897000</t>
+          <t>2016-10-31T16:51:29.153000</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>-1</v>
       </c>
       <c r="J95" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K95" t="n">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="L95" t="n">
         <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>947903.3368709616</v>
+        <v>948415.9038655588</v>
       </c>
       <c r="N95" t="n">
-        <v>1245060.455716118</v>
+        <v>1249262.51784635</v>
       </c>
       <c r="O95" t="n">
         <v>-75.16876810387913</v>
@@ -7005,7 +7005,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q95" t="n">
-        <v>73.6952415590205</v>
+        <v>73.80739780131945</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -7027,45 +7027,45 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>173515</v>
+        <v>173488</v>
       </c>
       <c r="C96" t="n">
-        <v>58.01755000000001</v>
+        <v>70.77371666666667</v>
       </c>
       <c r="D96" t="n">
-        <v>6.865</v>
+        <v>6.799</v>
       </c>
       <c r="E96" t="n">
-        <v>-74.5427</v>
+        <v>-74.55370000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1198168531494107</v>
+        <v>0.1186649358430945</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.301015548326377</v>
+        <v>-1.301207534544096</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2016-10-31T17:04:58.947000</t>
+          <t>2016-10-31T16:52:13.577000</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="K96" t="n">
-        <v>-51</v>
+        <v>10</v>
       </c>
       <c r="L96" t="n">
         <v>2</v>
       </c>
       <c r="M96" t="n">
-        <v>948583.3126528906</v>
+        <v>947360.262368964</v>
       </c>
       <c r="N96" t="n">
-        <v>1250921.26211195</v>
+        <v>1243623.270062962</v>
       </c>
       <c r="O96" t="n">
         <v>-75.16876810387913</v>
@@ -7074,7 +7074,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q96" t="n">
-        <v>73.82368362293697</v>
+        <v>73.31271090316417</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -7096,45 +7096,45 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>173516</v>
+        <v>173489</v>
       </c>
       <c r="C97" t="n">
-        <v>57.39011666666667</v>
+        <v>69.88566666666667</v>
       </c>
       <c r="D97" t="n">
-        <v>8.0496</v>
+        <v>6.8531</v>
       </c>
       <c r="E97" t="n">
-        <v>-75.29689999999999</v>
+        <v>-74.5528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1404920234685355</v>
+        <v>0.1196091589684234</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.314178821544918</v>
+        <v>-1.301191826580829</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2016-10-31T17:05:36.593000</t>
+          <t>2016-10-31T16:53:06.860000</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>-1</v>
       </c>
       <c r="J97" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K97" t="n">
-        <v>-56</v>
+        <v>-65</v>
       </c>
       <c r="L97" t="n">
         <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>865576.6935696475</v>
+        <v>947465.6525935049</v>
       </c>
       <c r="N97" t="n">
-        <v>1382105.129461826</v>
+        <v>1249606.290655948</v>
       </c>
       <c r="O97" t="n">
         <v>-75.16876810387913</v>
@@ -7143,7 +7143,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q97" t="n">
-        <v>17.73412722013611</v>
+        <v>72.86926655621207</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>102</v>
       </c>
       <c r="T97" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -7165,45 +7165,45 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>173517</v>
+        <v>173490</v>
       </c>
       <c r="C98" t="n">
-        <v>57.38850000000001</v>
+        <v>69.289</v>
       </c>
       <c r="D98" t="n">
-        <v>8.048400000000001</v>
+        <v>6.808500000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>-75.24299999999999</v>
+        <v>-74.5398</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1404710795175116</v>
+        <v>0.118830742122034</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.313238089078093</v>
+        <v>-1.300964933778069</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2016-10-31T17:05:36.690000</t>
+          <t>2016-10-31T16:53:42.660000</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K98" t="n">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="L98" t="n">
         <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>871518.9531023563</v>
+        <v>948897.8485369348</v>
       </c>
       <c r="N98" t="n">
-        <v>1381955.066361873</v>
+        <v>1244672.417356263</v>
       </c>
       <c r="O98" t="n">
         <v>-75.16876810387913</v>
@@ -7212,7 +7212,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q98" t="n">
-        <v>13.35207390382622</v>
+        <v>74.67646591027493</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>102</v>
       </c>
       <c r="T98" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -7234,45 +7234,45 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>173518</v>
+        <v>173491</v>
       </c>
       <c r="C99" t="n">
-        <v>55.76771666666666</v>
+        <v>68.58588333333334</v>
       </c>
       <c r="D99" t="n">
-        <v>8.030200000000001</v>
+        <v>6.8362</v>
       </c>
       <c r="E99" t="n">
-        <v>-75.21469999999999</v>
+        <v>-74.5472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1401534295936487</v>
+        <v>0.1193141983248363</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.312744160899779</v>
+        <v>-1.301094088142717</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2016-10-31T17:07:13.937000</t>
+          <t>2016-10-31T16:54:24.847000</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>-1</v>
       </c>
       <c r="J99" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="K99" t="n">
-        <v>-70</v>
+        <v>-22</v>
       </c>
       <c r="L99" t="n">
         <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>874633.4893523236</v>
+        <v>948082.8118787874</v>
       </c>
       <c r="N99" t="n">
-        <v>1379933.056122763</v>
+        <v>1247736.648309839</v>
       </c>
       <c r="O99" t="n">
         <v>-75.16876810387913</v>
@@ -7281,7 +7281,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q99" t="n">
-        <v>11.20253074745794</v>
+        <v>73.62418261279734</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>102</v>
       </c>
       <c r="T99" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -7303,45 +7303,45 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>173519</v>
+        <v>173492</v>
       </c>
       <c r="C100" t="n">
-        <v>55.66288333333333</v>
+        <v>68.58571666666667</v>
       </c>
       <c r="D100" t="n">
-        <v>6.8087</v>
+        <v>6.8572</v>
       </c>
       <c r="E100" t="n">
-        <v>-74.5668</v>
+        <v>-74.5444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1188342327805379</v>
+        <v>0.1196807174677551</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.301436172676108</v>
+        <v>-1.301045218923661</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2016-10-31T17:07:20.227000</t>
+          <t>2016-10-31T16:54:24.857000</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>-1</v>
       </c>
       <c r="J100" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K100" t="n">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="L100" t="n">
         <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>945913.1994380808</v>
+        <v>948394.5714519152</v>
       </c>
       <c r="N100" t="n">
-        <v>1244697.474499267</v>
+        <v>1250058.813828504</v>
       </c>
       <c r="O100" t="n">
         <v>-75.16876810387913</v>
@@ -7350,7 +7350,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q100" t="n">
-        <v>71.84098973775161</v>
+        <v>73.71753826075948</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -7372,45 +7372,45 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>173520</v>
+        <v>173493</v>
       </c>
       <c r="C101" t="n">
-        <v>53.78655000000001</v>
+        <v>68.58533333333334</v>
       </c>
       <c r="D101" t="n">
-        <v>6.756</v>
+        <v>6.8377</v>
       </c>
       <c r="E101" t="n">
-        <v>-74.59439999999999</v>
+        <v>-74.54640000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1179144442647369</v>
+        <v>0.1193403782636163</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.301917883549658</v>
+        <v>-1.301080125508701</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2016-10-31T17:09:12.807000</t>
+          <t>2016-10-31T16:54:24.880000</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J101" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>-13</v>
       </c>
       <c r="L101" t="n">
         <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>942855.981261877</v>
+        <v>948171.4030442628</v>
       </c>
       <c r="N101" t="n">
-        <v>1238872.33796971</v>
+        <v>1247902.452546963</v>
       </c>
       <c r="O101" t="n">
         <v>-75.16876810387913</v>
@@ -7419,7 +7419,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q101" t="n">
-        <v>69.54032336833001</v>
+        <v>73.69392363629807</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -7441,45 +7441,45 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>173521</v>
+        <v>173494</v>
       </c>
       <c r="C102" t="n">
-        <v>49.5705</v>
+        <v>68.58005</v>
       </c>
       <c r="D102" t="n">
-        <v>7.994900000000001</v>
+        <v>6.8578</v>
       </c>
       <c r="E102" t="n">
-        <v>-75.2664</v>
+        <v>-74.53959999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1395373283676947</v>
+        <v>0.1196911894432671</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.31364649612306</v>
+        <v>-1.300961443119565</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2016-10-31T17:13:25.770000</t>
+          <t>2016-10-31T16:54:25.197000</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J102" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K102" t="n">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="L102" t="n">
         <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>868921.8995977306</v>
+        <v>948925.1890839108</v>
       </c>
       <c r="N102" t="n">
-        <v>1376044.375472053</v>
+        <v>1250124.656454723</v>
       </c>
       <c r="O102" t="n">
         <v>-75.16876810387913</v>
@@ -7488,7 +7488,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q102" t="n">
-        <v>14.09405898990496</v>
+        <v>74.21973397986649</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>102</v>
       </c>
       <c r="T102" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -7510,45 +7510,45 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>173522</v>
+        <v>173495</v>
       </c>
       <c r="C103" t="n">
-        <v>47.48616666666667</v>
+        <v>68.23100000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>6.7376</v>
+        <v>8.014099999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>-74.62179999999999</v>
+        <v>-75.2015</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1175933036823699</v>
+        <v>0.1398724315840776</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.302396103764704</v>
+        <v>-1.312513777438516</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2016-10-31T17:15:30.830000</t>
+          <t>2016-10-31T16:54:46.140000</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J103" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K103" t="n">
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="L103" t="n">
         <v>2</v>
       </c>
       <c r="M103" t="n">
-        <v>939824.4684044644</v>
+        <v>876083.9912204428</v>
       </c>
       <c r="N103" t="n">
-        <v>1236840.699631657</v>
+        <v>1378148.118179713</v>
       </c>
       <c r="O103" t="n">
         <v>-75.16876810387913</v>
@@ -7557,7 +7557,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q103" t="n">
-        <v>66.93976389348123</v>
+        <v>10.18310783574402</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>102</v>
       </c>
       <c r="T103" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -7579,45 +7579,45 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>173523</v>
+        <v>173496</v>
       </c>
       <c r="C104" t="n">
-        <v>46.34578333333334</v>
+        <v>68.22761666666666</v>
       </c>
       <c r="D104" t="n">
-        <v>6.9295</v>
+        <v>8.017400000000002</v>
       </c>
       <c r="E104" t="n">
-        <v>-74.5562</v>
+        <v>-75.2092</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1209425905169471</v>
+        <v>0.1399300274493934</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.301251167775396</v>
+        <v>-1.312648167790919</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2016-10-31T17:16:39.253000</t>
+          <t>2016-10-31T16:54:46.343000</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J104" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K104" t="n">
-        <v>8</v>
+        <v>-21</v>
       </c>
       <c r="L104" t="n">
         <v>2</v>
       </c>
       <c r="M104" t="n">
-        <v>947098.3101503348</v>
+        <v>875235.9935128434</v>
       </c>
       <c r="N104" t="n">
-        <v>1258056.048419964</v>
+        <v>1378515.483721634</v>
       </c>
       <c r="O104" t="n">
         <v>-75.16876810387913</v>
@@ -7626,7 +7626,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q104" t="n">
-        <v>71.79955475950857</v>
+        <v>10.60509028694232</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>102</v>
       </c>
       <c r="T104" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
@@ -7648,45 +7648,45 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>173524</v>
+        <v>173497</v>
       </c>
       <c r="C105" t="n">
-        <v>46.00221666666667</v>
+        <v>67.41255</v>
       </c>
       <c r="D105" t="n">
-        <v>6.8247</v>
+        <v>6.8442</v>
       </c>
       <c r="E105" t="n">
-        <v>-74.56480000000001</v>
+        <v>-74.55370000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.119113485460857</v>
+        <v>0.1194538246649959</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.301401266091068</v>
+        <v>-1.301207534544096</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2016-10-31T17:16:59.867000</t>
+          <t>2016-10-31T16:55:35.247000</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>-1</v>
       </c>
       <c r="J105" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K105" t="n">
-        <v>-23</v>
+        <v>-34</v>
       </c>
       <c r="L105" t="n">
         <v>2</v>
       </c>
       <c r="M105" t="n">
-        <v>946136.07282051</v>
+        <v>947365.1972372895</v>
       </c>
       <c r="N105" t="n">
-        <v>1246466.752452368</v>
+        <v>1248622.104378217</v>
       </c>
       <c r="O105" t="n">
         <v>-75.16876810387913</v>
@@ -7695,7 +7695,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q105" t="n">
-        <v>71.88710286180601</v>
+        <v>72.8607748989123</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -7717,45 +7717,45 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>173525</v>
+        <v>173498</v>
       </c>
       <c r="C106" t="n">
-        <v>46.00178333333334</v>
+        <v>67.41145</v>
       </c>
       <c r="D106" t="n">
-        <v>6.7648</v>
+        <v>6.8606</v>
       </c>
       <c r="E106" t="n">
-        <v>-74.5779</v>
+        <v>-74.53699999999998</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1180680332389124</v>
+        <v>0.119740058662323</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.301629904223079</v>
+        <v>-1.300916064559013</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2016-10-31T17:16:59.893000</t>
+          <t>2016-10-31T16:55:35.313000</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>-1</v>
       </c>
       <c r="J106" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K106" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="L106" t="n">
         <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>944681.1540348571</v>
+        <v>949212.8684454536</v>
       </c>
       <c r="N106" t="n">
-        <v>1239843.658202029</v>
+        <v>1250434.042535953</v>
       </c>
       <c r="O106" t="n">
         <v>-75.16876810387913</v>
@@ -7764,7 +7764,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q106" t="n">
-        <v>71.15042694490897</v>
+        <v>74.46871076569532</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -7786,45 +7786,45 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>173526</v>
+        <v>173499</v>
       </c>
       <c r="C107" t="n">
-        <v>46.00105</v>
+        <v>67.41061666666667</v>
       </c>
       <c r="D107" t="n">
-        <v>6.809800000000001</v>
+        <v>6.8605</v>
       </c>
       <c r="E107" t="n">
-        <v>-74.5672</v>
+        <v>-74.53789999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1188534314023098</v>
+        <v>0.1197383133330709</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.301443153993115</v>
+        <v>-1.300931772522281</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2016-10-31T17:16:59.937000</t>
+          <t>2016-10-31T16:55:35.363000</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>-1</v>
       </c>
       <c r="J107" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K107" t="n">
-        <v>-23</v>
+        <v>-34</v>
       </c>
       <c r="L107" t="n">
         <v>2</v>
       </c>
       <c r="M107" t="n">
-        <v>945869.1052930822</v>
+        <v>949113.3797730238</v>
       </c>
       <c r="N107" t="n">
-        <v>1244819.172507875</v>
+        <v>1250423.078568085</v>
       </c>
       <c r="O107" t="n">
         <v>-75.16876810387913</v>
@@ -7833,7 +7833,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q107" t="n">
-        <v>71.7877746015361</v>
+        <v>74.37431734982451</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -7855,45 +7855,45 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>173527</v>
+        <v>173500</v>
       </c>
       <c r="C108" t="n">
-        <v>45.99628333333333</v>
+        <v>67.40745</v>
       </c>
       <c r="D108" t="n">
-        <v>6.7598</v>
+        <v>6.8136</v>
       </c>
       <c r="E108" t="n">
-        <v>-74.5836</v>
+        <v>-74.5538</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1179807667763127</v>
+        <v>0.1189197539138857</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.301729387990443</v>
+        <v>-1.301209279873348</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2016-10-31T17:17:00.223000</t>
+          <t>2016-10-31T16:55:35.553000</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>-1</v>
       </c>
       <c r="J108" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K108" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="L108" t="n">
         <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>944050.4222233308</v>
+        <v>947350.7985931328</v>
       </c>
       <c r="N108" t="n">
-        <v>1239291.340708069</v>
+        <v>1245237.947671547</v>
       </c>
       <c r="O108" t="n">
         <v>-75.16876810387913</v>
@@ -7902,7 +7902,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q108" t="n">
-        <v>70.61452813096541</v>
+        <v>73.15394096998159</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -7924,45 +7924,45 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>173528</v>
+        <v>173501</v>
       </c>
       <c r="C109" t="n">
-        <v>42.34445000000001</v>
+        <v>67.40638333333334</v>
       </c>
       <c r="D109" t="n">
-        <v>6.6772</v>
+        <v>6.8267</v>
       </c>
       <c r="E109" t="n">
-        <v>-74.554</v>
+        <v>-74.5453</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1165391248141654</v>
+        <v>0.1191483920458969</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.301212770531853</v>
+        <v>-1.301060926886929</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2016-10-31T17:20:39.333000</t>
+          <t>2016-10-31T16:55:35.617000</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>-1</v>
       </c>
       <c r="J109" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="K109" t="n">
-        <v>-63</v>
+        <v>-8</v>
       </c>
       <c r="L109" t="n">
         <v>2</v>
       </c>
       <c r="M109" t="n">
-        <v>947313.9545449669</v>
+        <v>948291.8116751526</v>
       </c>
       <c r="N109" t="n">
-        <v>1230153.037821888</v>
+        <v>1246685.804647252</v>
       </c>
       <c r="O109" t="n">
         <v>-75.16876810387913</v>
@@ -7971,7 +7971,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q109" t="n">
-        <v>74.60191260564025</v>
+        <v>73.91749537274642</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -7993,45 +7993,45 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>173529</v>
+        <v>173502</v>
       </c>
       <c r="C110" t="n">
-        <v>42.34321666666667</v>
+        <v>67.40566666666668</v>
       </c>
       <c r="D110" t="n">
-        <v>6.6606</v>
+        <v>6.8156</v>
       </c>
       <c r="E110" t="n">
-        <v>-74.5611</v>
+        <v>-74.5536</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1162494001583343</v>
+        <v>0.1189546604989255</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.301336688908744</v>
+        <v>-1.301205789214844</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2016-10-31T17:20:39.407000</t>
+          <t>2016-10-31T16:55:35.660000</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>-1</v>
       </c>
       <c r="J110" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K110" t="n">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="L110" t="n">
         <v>2</v>
       </c>
       <c r="M110" t="n">
-        <v>946527.0852050512</v>
+        <v>947373.1251265096</v>
       </c>
       <c r="N110" t="n">
-        <v>1228317.957007671</v>
+        <v>1245459.113163775</v>
       </c>
       <c r="O110" t="n">
         <v>-75.16876810387913</v>
@@ -8040,7 +8040,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q110" t="n">
-        <v>74.0641030902306</v>
+        <v>73.15480368596826</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -8062,45 +8062,45 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>173530</v>
+        <v>173503</v>
       </c>
       <c r="C111" t="n">
-        <v>42.34005000000001</v>
+        <v>66.82278333333333</v>
       </c>
       <c r="D111" t="n">
-        <v>6.629100000000001</v>
+        <v>6.8041</v>
       </c>
       <c r="E111" t="n">
-        <v>-74.57150000000001</v>
+        <v>-74.536</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1156996214439561</v>
+        <v>0.1187539476349462</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.301518203150952</v>
+        <v>-1.300898611266494</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2016-10-31T17:20:39.597000</t>
+          <t>2016-10-31T16:56:10.633000</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>-1</v>
       </c>
       <c r="J111" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K111" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="L111" t="n">
         <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>945373.6079534548</v>
+        <v>949317.4510125908</v>
       </c>
       <c r="N111" t="n">
-        <v>1224835.410033016</v>
+        <v>1244185.406509107</v>
       </c>
       <c r="O111" t="n">
         <v>-75.16876810387913</v>
@@ -8109,7 +8109,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q111" t="n">
-        <v>73.37734337598692</v>
+        <v>75.11999445542881</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -8131,45 +8131,45 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>173531</v>
+        <v>173504</v>
       </c>
       <c r="C112" t="n">
-        <v>42.33661666666667</v>
+        <v>66.82233333333333</v>
       </c>
       <c r="D112" t="n">
-        <v>6.6572</v>
+        <v>6.8239</v>
       </c>
       <c r="E112" t="n">
-        <v>-74.56319999999999</v>
+        <v>-74.5577</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1161900589637665</v>
+        <v>0.1190995228268411</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.301373340823036</v>
+        <v>-1.301277347714176</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2016-10-31T17:20:39.803000</t>
+          <t>2016-10-31T16:56:10.660000</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>-1</v>
       </c>
       <c r="J112" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K112" t="n">
-        <v>-12</v>
+        <v>-26</v>
       </c>
       <c r="L112" t="n">
         <v>2</v>
       </c>
       <c r="M112" t="n">
-        <v>946294.5038611088</v>
+        <v>946920.8172990588</v>
       </c>
       <c r="N112" t="n">
-        <v>1227942.168294138</v>
+        <v>1246377.490017959</v>
       </c>
       <c r="O112" t="n">
         <v>-75.16876810387913</v>
@@ -8178,7 +8178,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q112" t="n">
-        <v>73.88869616112014</v>
+        <v>72.64071181567938</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -8200,45 +8200,45 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>173532</v>
+        <v>173505</v>
       </c>
       <c r="C113" t="n">
-        <v>40.27388333333333</v>
+        <v>66.822</v>
       </c>
       <c r="D113" t="n">
-        <v>6.8577</v>
+        <v>6.7975</v>
       </c>
       <c r="E113" t="n">
-        <v>-74.5808</v>
+        <v>-74.54430000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1196894441140152</v>
+        <v>0.1186387559043146</v>
       </c>
       <c r="G113" t="n">
-        <v>-1.301680518771387</v>
+        <v>-1.301043473594409</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2016-10-31T17:22:43.567000</t>
+          <t>2016-10-31T16:56:10.680000</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J113" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K113" t="n">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="L113" t="n">
         <v>2</v>
       </c>
       <c r="M113" t="n">
-        <v>944371.2518619748</v>
+        <v>948399.2300184936</v>
       </c>
       <c r="N113" t="n">
-        <v>1250118.17811559</v>
+        <v>1243456.367565445</v>
       </c>
       <c r="O113" t="n">
         <v>-75.16876810387913</v>
@@ -8247,7 +8247,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q113" t="n">
-        <v>69.87480032410453</v>
+        <v>74.31390173795508</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -8269,45 +8269,45 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>173533</v>
+        <v>173506</v>
       </c>
       <c r="C114" t="n">
-        <v>39.95845</v>
+        <v>66.82083333333334</v>
       </c>
       <c r="D114" t="n">
-        <v>8.045</v>
+        <v>6.8256</v>
       </c>
       <c r="E114" t="n">
-        <v>-75.259</v>
+        <v>-74.538</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1404117383229438</v>
+        <v>0.119129193424125</v>
       </c>
       <c r="G114" t="n">
-        <v>-1.313517341758413</v>
+        <v>-1.300933517851533</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2016-10-31T17:23:02.493000</t>
+          <t>2016-10-31T16:56:10.750000</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>-1</v>
       </c>
       <c r="J114" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="K114" t="n">
-        <v>-72</v>
+        <v>-36</v>
       </c>
       <c r="L114" t="n">
         <v>2</v>
       </c>
       <c r="M114" t="n">
-        <v>869753.8255426707</v>
+        <v>949098.6304281484</v>
       </c>
       <c r="N114" t="n">
-        <v>1381584.021743515</v>
+        <v>1246563.374815654</v>
       </c>
       <c r="O114" t="n">
         <v>-75.16876810387913</v>
@@ -8316,7 +8316,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q114" t="n">
-        <v>14.45435751825966</v>
+        <v>74.6977086638188</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>102</v>
       </c>
       <c r="T114" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -8338,45 +8338,45 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>173534</v>
+        <v>173507</v>
       </c>
       <c r="C115" t="n">
-        <v>39.77833333333334</v>
+        <v>66.21271666666668</v>
       </c>
       <c r="D115" t="n">
-        <v>6.7757</v>
+        <v>6.857</v>
       </c>
       <c r="E115" t="n">
-        <v>-74.5984</v>
+        <v>-74.53919999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1182582741273798</v>
+        <v>0.1196772268092512</v>
       </c>
       <c r="G115" t="n">
-        <v>-1.301987696719738</v>
+        <v>-1.300954461802557</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2016-10-31T17:23:13.300000</t>
+          <t>2016-10-31T16:56:47.237000</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>-1</v>
       </c>
       <c r="J115" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K115" t="n">
-        <v>-39</v>
+        <v>-52</v>
       </c>
       <c r="L115" t="n">
         <v>2</v>
       </c>
       <c r="M115" t="n">
-        <v>942416.0906042713</v>
+        <v>948969.3166983308</v>
       </c>
       <c r="N115" t="n">
-        <v>1241051.514126301</v>
+        <v>1250036.139000186</v>
       </c>
       <c r="O115" t="n">
         <v>-75.16876810387913</v>
@@ -8385,7 +8385,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q115" t="n">
-        <v>68.90613223388839</v>
+        <v>74.26962749526189</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -8407,45 +8407,45 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>173535</v>
+        <v>173508</v>
       </c>
       <c r="C116" t="n">
-        <v>39.02405</v>
+        <v>66.21161666666667</v>
       </c>
       <c r="D116" t="n">
-        <v>6.821200000000001</v>
+        <v>6.8333</v>
       </c>
       <c r="E116" t="n">
-        <v>-74.5699</v>
+        <v>-74.5352</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1190523989370372</v>
+        <v>0.1192635837765285</v>
       </c>
       <c r="G116" t="n">
-        <v>-1.30149027788292</v>
+        <v>-1.300884648632478</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2016-10-31T17:23:58.557000</t>
+          <t>2016-10-31T16:56:47.303000</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J116" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>-33</v>
       </c>
       <c r="L116" t="n">
         <v>2</v>
       </c>
       <c r="M116" t="n">
-        <v>945571.9241307158</v>
+        <v>949408.9491584188</v>
       </c>
       <c r="N116" t="n">
-        <v>1246080.246400147</v>
+        <v>1247414.649481683</v>
       </c>
       <c r="O116" t="n">
         <v>-75.16876810387913</v>
@@ -8454,7 +8454,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q116" t="n">
-        <v>71.38790687282105</v>
+        <v>74.91860105553425</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -8476,45 +8476,45 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>173536</v>
+        <v>173509</v>
       </c>
       <c r="C117" t="n">
-        <v>37.93666666666668</v>
+        <v>66.20928333333333</v>
       </c>
       <c r="D117" t="n">
-        <v>6.7727</v>
+        <v>6.8236</v>
       </c>
       <c r="E117" t="n">
-        <v>-74.56180000000001</v>
+        <v>-74.5596</v>
       </c>
       <c r="F117" t="n">
-        <v>0.11820591424982</v>
+        <v>0.1190942868390851</v>
       </c>
       <c r="G117" t="n">
-        <v>-1.301348906213508</v>
+        <v>-1.301310508969964</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2016-10-31T17:25:03.800000</t>
+          <t>2016-10-31T16:56:47.443000</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J117" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K117" t="n">
-        <v>9</v>
+        <v>-23</v>
       </c>
       <c r="L117" t="n">
         <v>2</v>
       </c>
       <c r="M117" t="n">
-        <v>946461.9377559684</v>
+        <v>946710.7582365696</v>
       </c>
       <c r="N117" t="n">
-        <v>1240715.545717766</v>
+        <v>1246344.521447278</v>
       </c>
       <c r="O117" t="n">
         <v>-75.16876810387913</v>
@@ -8523,7 +8523,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q117" t="n">
-        <v>72.74005375653607</v>
+        <v>72.44412951804499</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -8545,45 +8545,45 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>173537</v>
+        <v>173510</v>
       </c>
       <c r="C118" t="n">
-        <v>32.71155</v>
+        <v>66.20921666666668</v>
       </c>
       <c r="D118" t="n">
-        <v>6.806</v>
+        <v>6.7705</v>
       </c>
       <c r="E118" t="n">
-        <v>-74.5988</v>
+        <v>-74.57040000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1187871088907341</v>
+        <v>0.1181675170062761</v>
       </c>
       <c r="G118" t="n">
-        <v>-1.301994678036746</v>
+        <v>-1.30149900452918</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2016-10-31T17:30:17.307000</t>
+          <t>2016-10-31T16:56:47.447000</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J118" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K118" t="n">
-        <v>19</v>
+        <v>-12</v>
       </c>
       <c r="L118" t="n">
         <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>942375.4751633632</v>
+        <v>945510.9457914556</v>
       </c>
       <c r="N118" t="n">
-        <v>1244402.568314905</v>
+        <v>1240473.195683541</v>
       </c>
       <c r="O118" t="n">
         <v>-75.16876810387913</v>
@@ -8592,7 +8592,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q118" t="n">
-        <v>68.53187067259698</v>
+        <v>71.86789410859956</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -8614,45 +8614,45 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>173538</v>
+        <v>173511</v>
       </c>
       <c r="C119" t="n">
-        <v>31.87233333333333</v>
+        <v>61.37861666666666</v>
       </c>
       <c r="D119" t="n">
-        <v>6.8138</v>
+        <v>7.975</v>
       </c>
       <c r="E119" t="n">
-        <v>-74.5463</v>
+        <v>-75.2799</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1189232445723896</v>
+        <v>0.1391900078465478</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.301078380179449</v>
+        <v>-1.313882115572079</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2016-10-31T17:31:07.660000</t>
+          <t>2016-10-31T17:01:37.283000</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J119" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="K119" t="n">
-        <v>9</v>
+        <v>-85</v>
       </c>
       <c r="L119" t="n">
         <v>2</v>
       </c>
       <c r="M119" t="n">
-        <v>948179.8863343912</v>
+        <v>867426.8648605258</v>
       </c>
       <c r="N119" t="n">
-        <v>1245259.255141547</v>
+        <v>1373847.373004573</v>
       </c>
       <c r="O119" t="n">
         <v>-75.16876810387913</v>
@@ -8661,7 +8661,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q119" t="n">
-        <v>73.94002413867531</v>
+        <v>14.96261801674519</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>102</v>
       </c>
       <c r="T119" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -8683,45 +8683,45 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>173539</v>
+        <v>173512</v>
       </c>
       <c r="C120" t="n">
-        <v>31.27983333333334</v>
+        <v>58.03638333333333</v>
       </c>
       <c r="D120" t="n">
-        <v>7.9931</v>
+        <v>6.8379</v>
       </c>
       <c r="E120" t="n">
-        <v>-75.1763</v>
+        <v>-74.5361</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1395059124411588</v>
+        <v>0.1193438689221202</v>
       </c>
       <c r="G120" t="n">
-        <v>-1.312073954467013</v>
+        <v>-1.300900356595746</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2016-10-31T17:31:43.210000</t>
+          <t>2016-10-31T17:04:57.817000</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J120" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K120" t="n">
-        <v>24</v>
+        <v>-30</v>
       </c>
       <c r="L120" t="n">
         <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>878856.3288284006</v>
+        <v>949309.9501166248</v>
       </c>
       <c r="N120" t="n">
-        <v>1375817.677870321</v>
+        <v>1247923.474102128</v>
       </c>
       <c r="O120" t="n">
         <v>-75.16876810387913</v>
@@ -8730,16 +8730,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q120" t="n">
-        <v>8.952468882180131</v>
+        <v>74.77930095908377</v>
       </c>
       <c r="R120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" t="n">
         <v>102</v>
       </c>
       <c r="T120" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -8752,45 +8752,45 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>173540</v>
+        <v>173513</v>
       </c>
       <c r="C121" t="n">
-        <v>31.00461666666667</v>
+        <v>58.03561666666667</v>
       </c>
       <c r="D121" t="n">
-        <v>7.7399</v>
+        <v>6.8232</v>
       </c>
       <c r="E121" t="n">
-        <v>-75.1041</v>
+        <v>-74.5346</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1350867387751091</v>
+        <v>0.1190873055220771</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.310813826747073</v>
+        <v>-1.300874176656966</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2016-10-31T17:31:59.723000</t>
+          <t>2016-10-31T17:04:57.863000</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>-1</v>
       </c>
       <c r="J121" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K121" t="n">
-        <v>-22</v>
+        <v>-31</v>
       </c>
       <c r="L121" t="n">
         <v>2</v>
       </c>
       <c r="M121" t="n">
-        <v>886748.6651391824</v>
+        <v>949474.2121135556</v>
       </c>
       <c r="N121" t="n">
-        <v>1347790.112779947</v>
+        <v>1246297.592984461</v>
       </c>
       <c r="O121" t="n">
         <v>-75.16876810387913</v>
@@ -8799,7 +8799,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q121" t="n">
-        <v>7.411423819779233</v>
+        <v>75.07969727319329</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>102</v>
       </c>
       <c r="T121" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
@@ -8821,45 +8821,45 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>173541</v>
+        <v>173514</v>
       </c>
       <c r="C122" t="n">
-        <v>30.94328333333333</v>
+        <v>58.03505</v>
       </c>
       <c r="D122" t="n">
-        <v>6.8703</v>
+        <v>6.812</v>
       </c>
       <c r="E122" t="n">
-        <v>-74.54940000000002</v>
+        <v>-74.5488</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1199093555997665</v>
+        <v>0.1188918286458538</v>
       </c>
       <c r="G122" t="n">
-        <v>-1.301132485386261</v>
+        <v>-1.301122013410749</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2016-10-31T17:32:03.403000</t>
+          <t>2016-10-31T17:04:57.897000</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J122" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K122" t="n">
-        <v>15</v>
+        <v>-11</v>
       </c>
       <c r="L122" t="n">
         <v>2</v>
       </c>
       <c r="M122" t="n">
-        <v>947843.3369780644</v>
+        <v>947903.3368709616</v>
       </c>
       <c r="N122" t="n">
-        <v>1251508.133255276</v>
+        <v>1245060.455716118</v>
       </c>
       <c r="O122" t="n">
         <v>-75.16876810387913</v>
@@ -8868,7 +8868,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q122" t="n">
-        <v>73.06441334602221</v>
+        <v>73.6952415590205</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -8890,45 +8890,45 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>173542</v>
+        <v>173515</v>
       </c>
       <c r="C123" t="n">
-        <v>29.35978333333334</v>
+        <v>58.01755000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>8.0192</v>
+        <v>6.865</v>
       </c>
       <c r="E123" t="n">
-        <v>-75.21080000000001</v>
+        <v>-74.5427</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1399614433759293</v>
+        <v>0.1198168531494107</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.312676093058951</v>
+        <v>-1.301015548326377</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2016-10-31T17:33:38.413000</t>
+          <t>2016-10-31T17:04:58.947000</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>-1</v>
       </c>
       <c r="J123" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="K123" t="n">
-        <v>-29</v>
+        <v>-51</v>
       </c>
       <c r="L123" t="n">
         <v>2</v>
       </c>
       <c r="M123" t="n">
-        <v>875060.127831002</v>
+        <v>948583.3126528906</v>
       </c>
       <c r="N123" t="n">
-        <v>1378715.080402583</v>
+        <v>1250921.26211195</v>
       </c>
       <c r="O123" t="n">
         <v>-75.16876810387913</v>
@@ -8937,16 +8937,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q123" t="n">
-        <v>10.72804055200601</v>
+        <v>73.82368362293697</v>
       </c>
       <c r="R123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
         <v>102</v>
       </c>
       <c r="T123" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
@@ -8959,45 +8959,45 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>173543</v>
+        <v>173516</v>
       </c>
       <c r="C124" t="n">
-        <v>29.35811666666667</v>
+        <v>57.39011666666667</v>
       </c>
       <c r="D124" t="n">
-        <v>7.971799999999999</v>
+        <v>8.0496</v>
       </c>
       <c r="E124" t="n">
-        <v>-75.1978</v>
+        <v>-75.29689999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.139134157310484</v>
+        <v>0.1404920234685355</v>
       </c>
       <c r="G124" t="n">
-        <v>-1.312449200256192</v>
+        <v>-1.314178821544918</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2016-10-31T17:33:38.513000</t>
+          <t>2016-10-31T17:05:36.593000</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>-1</v>
       </c>
       <c r="J124" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="K124" t="n">
-        <v>-32</v>
+        <v>-56</v>
       </c>
       <c r="L124" t="n">
         <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>876479.2297708037</v>
+        <v>865576.6935696475</v>
       </c>
       <c r="N124" t="n">
-        <v>1373467.938349194</v>
+        <v>1382105.129461826</v>
       </c>
       <c r="O124" t="n">
         <v>-75.16876810387913</v>
@@ -9006,16 +9006,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q124" t="n">
-        <v>8.908612095199921</v>
+        <v>17.73412722013611</v>
       </c>
       <c r="R124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124" t="n">
         <v>102</v>
       </c>
       <c r="T124" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
@@ -9028,45 +9028,45 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>173544</v>
+        <v>173517</v>
       </c>
       <c r="C125" t="n">
-        <v>28.72533333333333</v>
+        <v>57.38850000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>6.7068</v>
+        <v>8.048400000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>-74.5707</v>
+        <v>-75.24299999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1170557422727557</v>
+        <v>0.1404710795175116</v>
       </c>
       <c r="G125" t="n">
-        <v>-1.301504240516936</v>
+        <v>-1.313238089078093</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2016-10-31T17:34:16.480000</t>
+          <t>2016-10-31T17:05:36.690000</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J125" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K125" t="n">
-        <v>12</v>
+        <v>-27</v>
       </c>
       <c r="L125" t="n">
         <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>945470.6643143344</v>
+        <v>871518.9531023563</v>
       </c>
       <c r="N125" t="n">
-        <v>1233428.418477792</v>
+        <v>1381955.066361873</v>
       </c>
       <c r="O125" t="n">
         <v>-75.16876810387913</v>
@@ -9075,7 +9075,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q125" t="n">
-        <v>72.54296662070989</v>
+        <v>13.35207390382622</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>102</v>
       </c>
       <c r="T125" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
@@ -9097,45 +9097,45 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>173545</v>
+        <v>173518</v>
       </c>
       <c r="C126" t="n">
-        <v>28.26928333333333</v>
+        <v>55.76771666666666</v>
       </c>
       <c r="D126" t="n">
-        <v>7.725700000000002</v>
+        <v>8.030200000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>-75.06140000000001</v>
+        <v>-75.21469999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1348389020213259</v>
+        <v>0.1401534295936487</v>
       </c>
       <c r="G126" t="n">
-        <v>-1.310068571156472</v>
+        <v>-1.312744160899779</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2016-10-31T17:34:43.843000</t>
+          <t>2016-10-31T17:07:13.937000</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>-1</v>
       </c>
       <c r="J126" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K126" t="n">
-        <v>-61</v>
+        <v>-70</v>
       </c>
       <c r="L126" t="n">
         <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>891456.0628414796</v>
+        <v>874633.4893523236</v>
       </c>
       <c r="N126" t="n">
-        <v>1346208.315181762</v>
+        <v>1379933.056122763</v>
       </c>
       <c r="O126" t="n">
         <v>-75.16876810387913</v>
@@ -9144,7 +9144,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q126" t="n">
-        <v>12.05213170118913</v>
+        <v>11.20253074745794</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>102</v>
       </c>
       <c r="T126" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -9166,45 +9166,45 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>173546</v>
+        <v>173519</v>
       </c>
       <c r="C127" t="n">
-        <v>27.47938333333333</v>
+        <v>55.66288333333333</v>
       </c>
       <c r="D127" t="n">
-        <v>8.0214</v>
+        <v>6.8087</v>
       </c>
       <c r="E127" t="n">
-        <v>-75.20189999999999</v>
+        <v>-74.5668</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1399998406194732</v>
+        <v>0.1188342327805379</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.312520758755524</v>
+        <v>-1.301436172676108</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:31.237000</t>
+          <t>2016-10-31T17:07:20.227000</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>-1</v>
       </c>
       <c r="J127" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="K127" t="n">
-        <v>-66</v>
+        <v>-24</v>
       </c>
       <c r="L127" t="n">
         <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>876042.0977889657</v>
+        <v>945913.1994380808</v>
       </c>
       <c r="N127" t="n">
-        <v>1378955.739211642</v>
+        <v>1244697.474499267</v>
       </c>
       <c r="O127" t="n">
         <v>-75.16876810387913</v>
@@ -9213,16 +9213,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q127" t="n">
-        <v>10.3936213811118</v>
+        <v>71.84098973775161</v>
       </c>
       <c r="R127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S127" t="n">
         <v>102</v>
       </c>
       <c r="T127" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -9235,45 +9235,45 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>173547</v>
+        <v>173520</v>
       </c>
       <c r="C128" t="n">
-        <v>27.47895</v>
+        <v>53.78655000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>8.0273</v>
+        <v>6.756</v>
       </c>
       <c r="E128" t="n">
-        <v>-75.2167</v>
+        <v>-74.59439999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1401028150453409</v>
+        <v>0.1179144442647369</v>
       </c>
       <c r="G128" t="n">
-        <v>-1.312779067484819</v>
+        <v>-1.301917883549658</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:31.263000</t>
+          <t>2016-10-31T17:09:12.807000</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K128" t="n">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="L128" t="n">
         <v>2</v>
       </c>
       <c r="M128" t="n">
-        <v>874412.0859915719</v>
+        <v>942855.981261877</v>
       </c>
       <c r="N128" t="n">
-        <v>1379612.878575574</v>
+        <v>1238872.33796971</v>
       </c>
       <c r="O128" t="n">
         <v>-75.16876810387913</v>
@@ -9282,16 +9282,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q128" t="n">
-        <v>11.23301989930796</v>
+        <v>69.54032336833001</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
         <v>102</v>
       </c>
       <c r="T128" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
@@ -9304,45 +9304,45 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>173548</v>
+        <v>173521</v>
       </c>
       <c r="C129" t="n">
-        <v>27.47716666666667</v>
+        <v>49.5705</v>
       </c>
       <c r="D129" t="n">
-        <v>8.018700000000001</v>
+        <v>7.994900000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>-75.1969</v>
+        <v>-75.2664</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1399527167296693</v>
+        <v>0.1395373283676947</v>
       </c>
       <c r="G129" t="n">
-        <v>-1.312433492292924</v>
+        <v>-1.31364649612306</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:31.370000</t>
+          <t>2016-10-31T17:13:25.770000</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K129" t="n">
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="L129" t="n">
         <v>2</v>
       </c>
       <c r="M129" t="n">
-        <v>876592.5734729628</v>
+        <v>868921.8995977306</v>
       </c>
       <c r="N129" t="n">
-        <v>1378655.568639466</v>
+        <v>1376044.375472053</v>
       </c>
       <c r="O129" t="n">
         <v>-75.16876810387913</v>
@@ -9351,16 +9351,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q129" t="n">
-        <v>10.13655953230492</v>
+        <v>14.09405898990496</v>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" t="n">
         <v>102</v>
       </c>
       <c r="T129" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
@@ -9373,45 +9373,45 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>173549</v>
+        <v>173522</v>
       </c>
       <c r="C130" t="n">
-        <v>27.47255</v>
+        <v>47.48616666666667</v>
       </c>
       <c r="D130" t="n">
-        <v>8.0421</v>
+        <v>6.7376</v>
       </c>
       <c r="E130" t="n">
-        <v>-75.33580000000001</v>
+        <v>-74.62179999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1403611237746359</v>
+        <v>0.1175933036823699</v>
       </c>
       <c r="G130" t="n">
-        <v>-1.314857754623944</v>
+        <v>-1.302396103764704</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:31.647000</t>
+          <t>2016-10-31T17:15:30.830000</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K130" t="n">
-        <v>-40</v>
+        <v>9</v>
       </c>
       <c r="L130" t="n">
         <v>2</v>
       </c>
       <c r="M130" t="n">
-        <v>861285.2292928436</v>
+        <v>939824.4684044644</v>
       </c>
       <c r="N130" t="n">
-        <v>1381288.453388483</v>
+        <v>1236840.699631657</v>
       </c>
       <c r="O130" t="n">
         <v>-75.16876810387913</v>
@@ -9420,16 +9420,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q130" t="n">
-        <v>21.28029521468813</v>
+        <v>66.93976389348123</v>
       </c>
       <c r="R130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130" t="n">
         <v>102</v>
       </c>
       <c r="T130" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
@@ -9442,45 +9442,45 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>173550</v>
+        <v>173523</v>
       </c>
       <c r="C131" t="n">
-        <v>27.47083333333333</v>
+        <v>46.34578333333334</v>
       </c>
       <c r="D131" t="n">
-        <v>8.0192</v>
+        <v>6.9295</v>
       </c>
       <c r="E131" t="n">
-        <v>-75.1986</v>
+        <v>-74.5562</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1399614433759293</v>
+        <v>0.1209425905169471</v>
       </c>
       <c r="G131" t="n">
-        <v>-1.312463162890208</v>
+        <v>-1.301251167775396</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:31.750000</t>
+          <t>2016-10-31T17:16:39.253000</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K131" t="n">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
         <v>2</v>
       </c>
       <c r="M131" t="n">
-        <v>876405.2847627762</v>
+        <v>947098.3101503348</v>
       </c>
       <c r="N131" t="n">
-        <v>1378711.388119805</v>
+        <v>1258056.048419964</v>
       </c>
       <c r="O131" t="n">
         <v>-75.16876810387913</v>
@@ -9489,16 +9489,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q131" t="n">
-        <v>10.20992278909788</v>
+        <v>71.79955475950857</v>
       </c>
       <c r="R131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" t="n">
         <v>102</v>
       </c>
       <c r="T131" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
@@ -9511,45 +9511,45 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>173551</v>
+        <v>173524</v>
       </c>
       <c r="C132" t="n">
-        <v>27.47011666666667</v>
+        <v>46.00221666666667</v>
       </c>
       <c r="D132" t="n">
-        <v>8.038500000000001</v>
+        <v>6.8247</v>
       </c>
       <c r="E132" t="n">
-        <v>-75.2544</v>
+        <v>-74.56480000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1402982919215642</v>
+        <v>0.119113485460857</v>
       </c>
       <c r="G132" t="n">
-        <v>-1.313437056612821</v>
+        <v>-1.301401266091068</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:31.793000</t>
+          <t>2016-10-31T17:16:59.867000</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>-1</v>
       </c>
       <c r="J132" t="n">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="K132" t="n">
-        <v>-193</v>
+        <v>-23</v>
       </c>
       <c r="L132" t="n">
         <v>2</v>
       </c>
       <c r="M132" t="n">
-        <v>870258.9263616905</v>
+        <v>946136.07282051</v>
       </c>
       <c r="N132" t="n">
-        <v>1380863.539956529</v>
+        <v>1246466.752452368</v>
       </c>
       <c r="O132" t="n">
         <v>-75.16876810387913</v>
@@ -9558,16 +9558,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q132" t="n">
-        <v>13.96689456880237</v>
+        <v>71.88710286180601</v>
       </c>
       <c r="R132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132" t="n">
         <v>102</v>
       </c>
       <c r="T132" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
@@ -9580,45 +9580,45 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>173552</v>
+        <v>173525</v>
       </c>
       <c r="C133" t="n">
-        <v>27.46033333333333</v>
+        <v>46.00178333333334</v>
       </c>
       <c r="D133" t="n">
-        <v>8.041500000000001</v>
+        <v>6.7648</v>
       </c>
       <c r="E133" t="n">
-        <v>-75.3318</v>
+        <v>-74.5779</v>
       </c>
       <c r="F133" t="n">
-        <v>0.140350651799124</v>
+        <v>0.1180680332389124</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.314787941453864</v>
+        <v>-1.301629904223079</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2016-10-31T17:35:32.380000</t>
+          <t>2016-10-31T17:16:59.893000</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>-1</v>
       </c>
       <c r="J133" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K133" t="n">
-        <v>-41</v>
+        <v>-26</v>
       </c>
       <c r="L133" t="n">
         <v>2</v>
       </c>
       <c r="M133" t="n">
-        <v>861726.0563213282</v>
+        <v>944681.1540348571</v>
       </c>
       <c r="N133" t="n">
-        <v>1381220.727306769</v>
+        <v>1239843.658202029</v>
       </c>
       <c r="O133" t="n">
         <v>-75.16876810387913</v>
@@ -9627,16 +9627,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q133" t="n">
-        <v>20.88252425232293</v>
+        <v>71.15042694490897</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>102</v>
       </c>
       <c r="T133" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
@@ -9649,45 +9649,45 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>173553</v>
+        <v>173526</v>
       </c>
       <c r="C134" t="n">
-        <v>24.81171666666667</v>
+        <v>46.00105</v>
       </c>
       <c r="D134" t="n">
-        <v>7.995800000000001</v>
+        <v>6.809800000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>-75.16790000000002</v>
+        <v>-74.5672</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1395530363309626</v>
+        <v>0.1188534314023098</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.311927346809846</v>
+        <v>-1.301443153993115</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2016-10-31T17:38:11.297000</t>
+          <t>2016-10-31T17:16:59.937000</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>-1</v>
       </c>
       <c r="J134" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K134" t="n">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="L134" t="n">
         <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>879783.3421441291</v>
+        <v>945869.1052930822</v>
       </c>
       <c r="N134" t="n">
-        <v>1376113.87791993</v>
+        <v>1244819.172507875</v>
       </c>
       <c r="O134" t="n">
         <v>-75.16876810387913</v>
@@ -9696,16 +9696,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q134" t="n">
-        <v>8.993075419542331</v>
+        <v>71.7877746015361</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S134" t="n">
         <v>102</v>
       </c>
       <c r="T134" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
@@ -9718,45 +9718,45 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>173554</v>
+        <v>173527</v>
       </c>
       <c r="C135" t="n">
-        <v>24.55788333333334</v>
+        <v>45.99628333333333</v>
       </c>
       <c r="D135" t="n">
-        <v>7.7304</v>
+        <v>6.7598</v>
       </c>
       <c r="E135" t="n">
-        <v>-75.14319999999999</v>
+        <v>-74.5836</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1349209324961697</v>
+        <v>0.1179807667763127</v>
       </c>
       <c r="G135" t="n">
-        <v>-1.311496250484603</v>
+        <v>-1.301729387990443</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2016-10-31T17:38:26.527000</t>
+          <t>2016-10-31T17:17:00.223000</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J135" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K135" t="n">
-        <v>22</v>
+        <v>-11</v>
       </c>
       <c r="L135" t="n">
         <v>2</v>
       </c>
       <c r="M135" t="n">
-        <v>882432.1361137803</v>
+        <v>944050.4222233308</v>
       </c>
       <c r="N135" t="n">
-        <v>1346749.89877744</v>
+        <v>1239291.340708069</v>
       </c>
       <c r="O135" t="n">
         <v>-75.16876810387913</v>
@@ -9765,7 +9765,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q135" t="n">
-        <v>3.181989570667073</v>
+        <v>70.61452813096541</v>
       </c>
       <c r="R135" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>102</v>
       </c>
       <c r="T135" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
@@ -9787,45 +9787,45 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>173555</v>
+        <v>173528</v>
       </c>
       <c r="C136" t="n">
-        <v>24.06445</v>
+        <v>42.34445000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>6.6548</v>
+        <v>6.6772</v>
       </c>
       <c r="E136" t="n">
-        <v>-74.49040000000002</v>
+        <v>-74.554</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1161481710617187</v>
+        <v>0.1165391248141654</v>
       </c>
       <c r="G136" t="n">
-        <v>-1.300102741127584</v>
+        <v>-1.301212770531853</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2016-10-31T17:38:56.133000</t>
+          <t>2016-10-31T17:20:39.333000</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J136" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K136" t="n">
-        <v>10</v>
+        <v>-63</v>
       </c>
       <c r="L136" t="n">
         <v>2</v>
       </c>
       <c r="M136" t="n">
-        <v>954344.3048047328</v>
+        <v>947313.9545449669</v>
       </c>
       <c r="N136" t="n">
-        <v>1227669.429283608</v>
+        <v>1230153.037821888</v>
       </c>
       <c r="O136" t="n">
         <v>-75.16876810387913</v>
@@ -9834,7 +9834,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q136" t="n">
-        <v>81.43889364171795</v>
+        <v>74.60191260564025</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>102</v>
       </c>
       <c r="T136" t="n">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
@@ -9856,45 +9856,45 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>173556</v>
+        <v>173529</v>
       </c>
       <c r="C137" t="n">
-        <v>23.04678333333333</v>
+        <v>42.34321666666667</v>
       </c>
       <c r="D137" t="n">
-        <v>7.9734</v>
+        <v>6.6606</v>
       </c>
       <c r="E137" t="n">
-        <v>-75.09229999999999</v>
+        <v>-74.5611</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1391620825785159</v>
+        <v>0.1162494001583343</v>
       </c>
       <c r="G137" t="n">
-        <v>-1.310607877895338</v>
+        <v>-1.301336688908744</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2016-10-31T17:39:57.193000</t>
+          <t>2016-10-31T17:20:39.407000</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>-1</v>
       </c>
       <c r="J137" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K137" t="n">
-        <v>-76</v>
+        <v>-21</v>
       </c>
       <c r="L137" t="n">
         <v>2</v>
       </c>
       <c r="M137" t="n">
-        <v>888113.0851982319</v>
+        <v>946527.0852050512</v>
       </c>
       <c r="N137" t="n">
-        <v>1373614.853814554</v>
+        <v>1228317.957007671</v>
       </c>
       <c r="O137" t="n">
         <v>-75.16876810387913</v>
@@ -9903,16 +9903,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q137" t="n">
-        <v>11.95656954877001</v>
+        <v>74.0641030902306</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
         <v>102</v>
       </c>
       <c r="T137" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
@@ -9925,45 +9925,45 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>173557</v>
+        <v>173530</v>
       </c>
       <c r="C138" t="n">
-        <v>23.03828333333333</v>
+        <v>42.34005000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>8.0084</v>
+        <v>6.629100000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>-75.1939</v>
+        <v>-74.57150000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1397729478167139</v>
+        <v>0.1156996214439561</v>
       </c>
       <c r="G138" t="n">
-        <v>-1.312381132415364</v>
+        <v>-1.301518203150952</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2016-10-31T17:39:57.703000</t>
+          <t>2016-10-31T17:20:39.597000</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>-1</v>
       </c>
       <c r="J138" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K138" t="n">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="L138" t="n">
         <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>876920.2539336979</v>
+        <v>945373.6079534548</v>
       </c>
       <c r="N138" t="n">
-        <v>1377515.321646517</v>
+        <v>1224835.410033016</v>
       </c>
       <c r="O138" t="n">
         <v>-75.16876810387913</v>
@@ -9972,16 +9972,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q138" t="n">
-        <v>9.756685638964829</v>
+        <v>73.37734337598692</v>
       </c>
       <c r="R138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S138" t="n">
         <v>102</v>
       </c>
       <c r="T138" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
@@ -9994,45 +9994,45 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>173558</v>
+        <v>173531</v>
       </c>
       <c r="C139" t="n">
-        <v>20.68166666666667</v>
+        <v>42.33661666666667</v>
       </c>
       <c r="D139" t="n">
-        <v>7.727299999999999</v>
+        <v>6.6572</v>
       </c>
       <c r="E139" t="n">
-        <v>-75.1318</v>
+        <v>-74.56319999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1348668272893578</v>
+        <v>0.1161900589637665</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.311297282949876</v>
+        <v>-1.301373340823036</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2016-10-31T17:42:19.100000</t>
+          <t>2016-10-31T17:20:39.803000</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>-1</v>
       </c>
       <c r="J139" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K139" t="n">
-        <v>-36</v>
+        <v>-12</v>
       </c>
       <c r="L139" t="n">
         <v>2</v>
       </c>
       <c r="M139" t="n">
-        <v>883689.0815826523</v>
+        <v>946294.5038611088</v>
       </c>
       <c r="N139" t="n">
-        <v>1346403.869523871</v>
+        <v>1227942.168294138</v>
       </c>
       <c r="O139" t="n">
         <v>-75.16876810387913</v>
@@ -10041,7 +10041,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q139" t="n">
-        <v>4.332065589575081</v>
+        <v>73.88869616112014</v>
       </c>
       <c r="R139" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>102</v>
       </c>
       <c r="T139" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
@@ -10063,45 +10063,45 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>173559</v>
+        <v>173532</v>
       </c>
       <c r="C140" t="n">
-        <v>20.68055</v>
+        <v>40.27388333333333</v>
       </c>
       <c r="D140" t="n">
-        <v>7.740399999999997</v>
+        <v>6.8577</v>
       </c>
       <c r="E140" t="n">
-        <v>-75.1041</v>
+        <v>-74.5808</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1350954654213691</v>
+        <v>0.1196894441140152</v>
       </c>
       <c r="G140" t="n">
-        <v>-1.310813826747073</v>
+        <v>-1.301680518771387</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2016-10-31T17:42:19.167000</t>
+          <t>2016-10-31T17:22:43.567000</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K140" t="n">
-        <v>-35</v>
+        <v>9</v>
       </c>
       <c r="L140" t="n">
         <v>2</v>
       </c>
       <c r="M140" t="n">
-        <v>886748.7986137464</v>
+        <v>944371.2518619748</v>
       </c>
       <c r="N140" t="n">
-        <v>1347845.418602414</v>
+        <v>1250118.17811559</v>
       </c>
       <c r="O140" t="n">
         <v>-75.16876810387913</v>
@@ -10110,7 +10110,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q140" t="n">
-        <v>7.414685765962679</v>
+        <v>69.87480032410453</v>
       </c>
       <c r="R140" t="n">
         <v>0</v>
@@ -10119,7 +10119,7 @@
         <v>102</v>
       </c>
       <c r="T140" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
@@ -10132,45 +10132,45 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>173560</v>
+        <v>173533</v>
       </c>
       <c r="C141" t="n">
-        <v>20.11878333333334</v>
+        <v>39.95845</v>
       </c>
       <c r="D141" t="n">
-        <v>6.756</v>
+        <v>8.045</v>
       </c>
       <c r="E141" t="n">
-        <v>-74.4937</v>
+        <v>-75.259</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1179144442647369</v>
+        <v>0.1404117383229438</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.3001603369929</v>
+        <v>-1.313517341758413</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2016-10-31T17:42:52.873000</t>
+          <t>2016-10-31T17:23:02.493000</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>-1</v>
       </c>
       <c r="J141" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="K141" t="n">
-        <v>-8</v>
+        <v>-72</v>
       </c>
       <c r="L141" t="n">
         <v>2</v>
       </c>
       <c r="M141" t="n">
-        <v>953988.8926209896</v>
+        <v>869753.8255426707</v>
       </c>
       <c r="N141" t="n">
-        <v>1238861.673307491</v>
+        <v>1381584.021743515</v>
       </c>
       <c r="O141" t="n">
         <v>-75.16876810387913</v>
@@ -10179,7 +10179,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q141" t="n">
-        <v>80.04954888970133</v>
+        <v>14.45435751825966</v>
       </c>
       <c r="R141" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>102</v>
       </c>
       <c r="T141" t="n">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -10201,45 +10201,45 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>173561</v>
+        <v>173534</v>
       </c>
       <c r="C142" t="n">
-        <v>20.11138333333333</v>
+        <v>39.77833333333334</v>
       </c>
       <c r="D142" t="n">
-        <v>6.7287</v>
+        <v>6.7757</v>
       </c>
       <c r="E142" t="n">
-        <v>-74.50239999999999</v>
+        <v>-74.5984</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1174379693789425</v>
+        <v>0.1182582741273798</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.300312180637823</v>
+        <v>-1.301987696719738</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2016-10-31T17:42:53.317000</t>
+          <t>2016-10-31T17:23:13.300000</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>-1</v>
       </c>
       <c r="J142" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K142" t="n">
-        <v>-30</v>
+        <v>-39</v>
       </c>
       <c r="L142" t="n">
         <v>2</v>
       </c>
       <c r="M142" t="n">
-        <v>953024.4394330408</v>
+        <v>942416.0906042713</v>
       </c>
       <c r="N142" t="n">
-        <v>1235843.326956503</v>
+        <v>1241051.514126301</v>
       </c>
       <c r="O142" t="n">
         <v>-75.16876810387913</v>
@@ -10248,7 +10248,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q142" t="n">
-        <v>79.40944098379555</v>
+        <v>68.90613223388839</v>
       </c>
       <c r="R142" t="n">
         <v>0</v>
@@ -10257,7 +10257,7 @@
         <v>102</v>
       </c>
       <c r="T142" t="n">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
@@ -10270,45 +10270,45 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>173562</v>
+        <v>173535</v>
       </c>
       <c r="C143" t="n">
-        <v>17.50071666666667</v>
+        <v>39.02405</v>
       </c>
       <c r="D143" t="n">
-        <v>6.4273</v>
+        <v>6.821200000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>-75.04649999999999</v>
+        <v>-74.5699</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1121775470134315</v>
+        <v>0.1190523989370372</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.309808517097924</v>
+        <v>-1.30149027788292</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2016-10-31T17:45:29.957000</t>
+          <t>2016-10-31T17:23:58.557000</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K143" t="n">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="L143" t="n">
         <v>2</v>
       </c>
       <c r="M143" t="n">
-        <v>892800.7641702674</v>
+        <v>945571.9241307158</v>
       </c>
       <c r="N143" t="n">
-        <v>1202592.919791043</v>
+        <v>1246080.246400147</v>
       </c>
       <c r="O143" t="n">
         <v>-75.16876810387913</v>
@@ -10317,7 +10317,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q143" t="n">
-        <v>38.48653973497795</v>
+        <v>71.38790687282105</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>102</v>
       </c>
       <c r="T143" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
@@ -10339,45 +10339,45 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>173563</v>
+        <v>173536</v>
       </c>
       <c r="C144" t="n">
-        <v>16.83578333333334</v>
+        <v>37.93666666666668</v>
       </c>
       <c r="D144" t="n">
-        <v>7.892099999999999</v>
+        <v>6.7727</v>
       </c>
       <c r="E144" t="n">
-        <v>-75.23990000000002</v>
+        <v>-74.56180000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1377431298966445</v>
+        <v>0.11820591424982</v>
       </c>
       <c r="G144" t="n">
-        <v>-1.313183983871282</v>
+        <v>-1.301348906213508</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2016-10-31T17:46:09.853000</t>
+          <t>2016-10-31T17:25:03.800000</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="K144" t="n">
-        <v>-81</v>
+        <v>9</v>
       </c>
       <c r="L144" t="n">
         <v>2</v>
       </c>
       <c r="M144" t="n">
-        <v>871812.0919032644</v>
+        <v>946461.9377559684</v>
       </c>
       <c r="N144" t="n">
-        <v>1364664.553341063</v>
+        <v>1240715.545717766</v>
       </c>
       <c r="O144" t="n">
         <v>-75.16876810387913</v>
@@ -10386,16 +10386,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q144" t="n">
-        <v>9.960308802069482</v>
+        <v>72.74005375653607</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144" t="n">
         <v>102</v>
       </c>
       <c r="T144" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
@@ -10408,45 +10408,45 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>173564</v>
+        <v>173537</v>
       </c>
       <c r="C145" t="n">
-        <v>15.39128333333334</v>
+        <v>32.71155</v>
       </c>
       <c r="D145" t="n">
-        <v>7.9926</v>
+        <v>6.806</v>
       </c>
       <c r="E145" t="n">
-        <v>-75.1442</v>
+        <v>-74.5988</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1394971857948988</v>
+        <v>0.1187871088907341</v>
       </c>
       <c r="G145" t="n">
-        <v>-1.311513703777123</v>
+        <v>-1.301994678036746</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2016-10-31T17:47:36.523000</t>
+          <t>2016-10-31T17:30:17.307000</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K145" t="n">
-        <v>-40</v>
+        <v>19</v>
       </c>
       <c r="L145" t="n">
         <v>2</v>
       </c>
       <c r="M145" t="n">
-        <v>882395.6662277613</v>
+        <v>942375.4751633632</v>
       </c>
       <c r="N145" t="n">
-        <v>1375753.068692349</v>
+        <v>1244402.568314905</v>
       </c>
       <c r="O145" t="n">
         <v>-75.16876810387913</v>
@@ -10455,16 +10455,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q145" t="n">
-        <v>9.320574070376679</v>
+        <v>68.53187067259698</v>
       </c>
       <c r="R145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S145" t="n">
         <v>102</v>
       </c>
       <c r="T145" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -10477,45 +10477,45 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>173565</v>
+        <v>173538</v>
       </c>
       <c r="C146" t="n">
-        <v>15.39021666666667</v>
+        <v>31.87233333333333</v>
       </c>
       <c r="D146" t="n">
-        <v>7.969899999999999</v>
+        <v>6.8138</v>
       </c>
       <c r="E146" t="n">
-        <v>-75.13760000000001</v>
+        <v>-74.5463</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1391009960546961</v>
+        <v>0.1189232445723896</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.311398512046491</v>
+        <v>-1.301078380179449</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2016-10-31T17:47:36.587000</t>
+          <t>2016-10-31T17:31:07.660000</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K146" t="n">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="L146" t="n">
         <v>2</v>
       </c>
       <c r="M146" t="n">
-        <v>883116.9549771725</v>
+        <v>948179.8863343912</v>
       </c>
       <c r="N146" t="n">
-        <v>1373240.252394475</v>
+        <v>1245259.255141547</v>
       </c>
       <c r="O146" t="n">
         <v>-75.16876810387913</v>
@@ -10524,16 +10524,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q146" t="n">
-        <v>8.963149890206724</v>
+        <v>73.94002413867531</v>
       </c>
       <c r="R146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S146" t="n">
         <v>102</v>
       </c>
       <c r="T146" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
@@ -10546,45 +10546,45 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>173566</v>
+        <v>173539</v>
       </c>
       <c r="C147" t="n">
-        <v>15.38921666666667</v>
+        <v>31.27983333333334</v>
       </c>
       <c r="D147" t="n">
-        <v>7.8318</v>
+        <v>7.9931</v>
       </c>
       <c r="E147" t="n">
-        <v>-75.1267</v>
+        <v>-75.1763</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1366906963576919</v>
+        <v>0.1395059124411588</v>
       </c>
       <c r="G147" t="n">
-        <v>-1.311208271158024</v>
+        <v>-1.312073954467013</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2016-10-31T17:47:36.647000</t>
+          <t>2016-10-31T17:31:43.210000</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K147" t="n">
-        <v>-30</v>
+        <v>24</v>
       </c>
       <c r="L147" t="n">
         <v>2</v>
       </c>
       <c r="M147" t="n">
-        <v>884280.4365381384</v>
+        <v>878856.3288284006</v>
       </c>
       <c r="N147" t="n">
-        <v>1357961.498234114</v>
+        <v>1375817.677870321</v>
       </c>
       <c r="O147" t="n">
         <v>-75.16876810387913</v>
@@ -10593,7 +10593,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q147" t="n">
-        <v>6.37407897834846</v>
+        <v>8.952468882180131</v>
       </c>
       <c r="R147" t="n">
         <v>1</v>
@@ -10615,45 +10615,45 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>173567</v>
+        <v>173540</v>
       </c>
       <c r="C148" t="n">
-        <v>15.01261666666667</v>
+        <v>31.00461666666667</v>
       </c>
       <c r="D148" t="n">
-        <v>6.7882</v>
+        <v>7.7399</v>
       </c>
       <c r="E148" t="n">
-        <v>-74.4237</v>
+        <v>-75.1041</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1184764402838791</v>
+        <v>0.1350867387751091</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.298938606516504</v>
+        <v>-1.310813826747073</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2016-10-31T17:47:59.243000</t>
+          <t>2016-10-31T17:31:59.723000</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J148" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K148" t="n">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="L148" t="n">
         <v>2</v>
       </c>
       <c r="M148" t="n">
-        <v>961730.2117979978</v>
+        <v>886748.6651391824</v>
       </c>
       <c r="N148" t="n">
-        <v>1242416.668779048</v>
+        <v>1347790.112779947</v>
       </c>
       <c r="O148" t="n">
         <v>-75.16876810387913</v>
@@ -10662,7 +10662,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q148" t="n">
-        <v>87.17452587391762</v>
+        <v>7.411423819779233</v>
       </c>
       <c r="R148" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>102</v>
       </c>
       <c r="T148" t="n">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
@@ -10684,45 +10684,45 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>173568</v>
+        <v>173541</v>
       </c>
       <c r="C149" t="n">
-        <v>14.30488333333333</v>
+        <v>30.94328333333333</v>
       </c>
       <c r="D149" t="n">
-        <v>7.687200000000002</v>
+        <v>6.8703</v>
       </c>
       <c r="E149" t="n">
-        <v>-75.092</v>
+        <v>-74.54940000000002</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1341669502593081</v>
+        <v>0.1199093555997665</v>
       </c>
       <c r="G149" t="n">
-        <v>-1.310602641907582</v>
+        <v>-1.301132485386261</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2016-10-31T17:48:41.707000</t>
+          <t>2016-10-31T17:32:03.403000</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K149" t="n">
-        <v>-39</v>
+        <v>15</v>
       </c>
       <c r="L149" t="n">
         <v>2</v>
       </c>
       <c r="M149" t="n">
-        <v>888069.7913360646</v>
+        <v>947843.3369780644</v>
       </c>
       <c r="N149" t="n">
-        <v>1341957.704641638</v>
+        <v>1251508.133255276</v>
       </c>
       <c r="O149" t="n">
         <v>-75.16876810387913</v>
@@ -10731,7 +10731,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q149" t="n">
-        <v>8.570548350505415</v>
+        <v>73.06441334602221</v>
       </c>
       <c r="R149" t="n">
         <v>0</v>
@@ -10740,7 +10740,7 @@
         <v>102</v>
       </c>
       <c r="T149" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
@@ -10753,45 +10753,45 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>173569</v>
+        <v>173542</v>
       </c>
       <c r="C150" t="n">
-        <v>12.60071666666667</v>
+        <v>29.35978333333334</v>
       </c>
       <c r="D150" t="n">
-        <v>8.031700000000001</v>
+        <v>8.0192</v>
       </c>
       <c r="E150" t="n">
-        <v>-75.1831</v>
+        <v>-75.21080000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1401796095324286</v>
+        <v>0.1399614433759293</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.312192636856149</v>
+        <v>-1.312676093058951</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2016-10-31T17:50:23.957000</t>
+          <t>2016-10-31T17:33:38.413000</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>-1</v>
       </c>
       <c r="J150" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="K150" t="n">
-        <v>-62</v>
+        <v>-29</v>
       </c>
       <c r="L150" t="n">
         <v>2</v>
       </c>
       <c r="M150" t="n">
-        <v>878118.0132678949</v>
+        <v>875060.127831002</v>
       </c>
       <c r="N150" t="n">
-        <v>1380089.452847132</v>
+        <v>1378715.080402583</v>
       </c>
       <c r="O150" t="n">
         <v>-75.16876810387913</v>
@@ -10800,7 +10800,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q150" t="n">
-        <v>10.14071341656276</v>
+        <v>10.72804055200601</v>
       </c>
       <c r="R150" t="n">
         <v>1</v>
@@ -10822,63 +10822,63 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>173570</v>
+        <v>173543</v>
       </c>
       <c r="C151" t="n">
-        <v>12.44383333333334</v>
+        <v>29.35811666666667</v>
       </c>
       <c r="D151" t="n">
-        <v>6.7475</v>
+        <v>7.971799999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>-74.4384</v>
+        <v>-75.1978</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1177660912783174</v>
+        <v>0.139134157310484</v>
       </c>
       <c r="G151" t="n">
-        <v>-1.299195169916547</v>
+        <v>-1.312449200256192</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2016-10-31T17:50:33.370000</t>
+          <t>2016-10-31T17:33:38.513000</t>
         </is>
       </c>
       <c r="I151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>32</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-32</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2</v>
+      </c>
+      <c r="M151" t="n">
+        <v>876479.2297708037</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1373467.938349194</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-75.16876810387913</v>
+      </c>
+      <c r="P151" t="n">
+        <v>7.681211016631909</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>8.908612095199921</v>
+      </c>
+      <c r="R151" t="n">
         <v>1</v>
       </c>
-      <c r="J151" t="n">
-        <v>10</v>
-      </c>
-      <c r="K151" t="n">
-        <v>10</v>
-      </c>
-      <c r="L151" t="n">
-        <v>2</v>
-      </c>
-      <c r="M151" t="n">
-        <v>960101.83921135</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1237916.765907738</v>
-      </c>
-      <c r="O151" t="n">
-        <v>-75.16876810387913</v>
-      </c>
-      <c r="P151" t="n">
-        <v>7.681211016631909</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>85.97811321536099</v>
-      </c>
-      <c r="R151" t="n">
-        <v>0</v>
-      </c>
       <c r="S151" t="n">
         <v>102</v>
       </c>
       <c r="T151" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
@@ -10891,45 +10891,45 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>173571</v>
+        <v>173544</v>
       </c>
       <c r="C152" t="n">
-        <v>10.72583333333333</v>
+        <v>28.72533333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>6.4324</v>
+        <v>6.7068</v>
       </c>
       <c r="E152" t="n">
-        <v>-75.03270000000001</v>
+        <v>-74.5707</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1122665588052833</v>
+        <v>0.1170557422727557</v>
       </c>
       <c r="G152" t="n">
-        <v>-1.309567661661149</v>
+        <v>-1.301504240516936</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2016-10-31T17:52:16.450000</t>
+          <t>2016-10-31T17:34:16.480000</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K152" t="n">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="L152" t="n">
         <v>2</v>
       </c>
       <c r="M152" t="n">
-        <v>894328.6461112548</v>
+        <v>945470.6643143344</v>
       </c>
       <c r="N152" t="n">
-        <v>1203154.126299431</v>
+        <v>1233428.418477792</v>
       </c>
       <c r="O152" t="n">
         <v>-75.16876810387913</v>
@@ -10938,7 +10938,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q152" t="n">
-        <v>38.93938673105738</v>
+        <v>72.54296662070989</v>
       </c>
       <c r="R152" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>102</v>
       </c>
       <c r="T152" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -10960,45 +10960,45 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>173572</v>
+        <v>173545</v>
       </c>
       <c r="C153" t="n">
-        <v>9.776450000000001</v>
+        <v>28.26928333333333</v>
       </c>
       <c r="D153" t="n">
-        <v>6.401</v>
+        <v>7.725700000000002</v>
       </c>
       <c r="E153" t="n">
-        <v>-75.03699999999998</v>
+        <v>-75.06140000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>0.111718525420157</v>
+        <v>0.1348389020213259</v>
       </c>
       <c r="G153" t="n">
-        <v>-1.309642710818985</v>
+        <v>-1.310068571156472</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2016-10-31T17:53:13.413000</t>
+          <t>2016-10-31T17:34:43.843000</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>-1</v>
       </c>
       <c r="J153" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K153" t="n">
-        <v>-44</v>
+        <v>-61</v>
       </c>
       <c r="L153" t="n">
         <v>2</v>
       </c>
       <c r="M153" t="n">
-        <v>893846.4001373132</v>
+        <v>891456.0628414796</v>
       </c>
       <c r="N153" t="n">
-        <v>1199682.071167648</v>
+        <v>1346208.315181762</v>
       </c>
       <c r="O153" t="n">
         <v>-75.16876810387913</v>
@@ -11007,7 +11007,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q153" t="n">
-        <v>39.58545733568365</v>
+        <v>12.05213170118913</v>
       </c>
       <c r="R153" t="n">
         <v>0</v>
@@ -11016,7 +11016,7 @@
         <v>102</v>
       </c>
       <c r="T153" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -11029,45 +11029,45 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>173573</v>
+        <v>173546</v>
       </c>
       <c r="C154" t="n">
-        <v>8.30245</v>
+        <v>27.47938333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>6.4242</v>
+        <v>8.0214</v>
       </c>
       <c r="E154" t="n">
-        <v>-75.0398</v>
+        <v>-75.20189999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1121234418066197</v>
+        <v>0.1399998406194732</v>
       </c>
       <c r="G154" t="n">
-        <v>-1.309691580038041</v>
+        <v>-1.312520758755524</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2016-10-31T17:54:41.853000</t>
+          <t>2016-10-31T17:35:31.237000</t>
         </is>
       </c>
       <c r="I154" t="n">
         <v>-1</v>
       </c>
       <c r="J154" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="K154" t="n">
-        <v>-31</v>
+        <v>-66</v>
       </c>
       <c r="L154" t="n">
         <v>2</v>
       </c>
       <c r="M154" t="n">
-        <v>893541.406806318</v>
+        <v>876042.0977889657</v>
       </c>
       <c r="N154" t="n">
-        <v>1202248.650281571</v>
+        <v>1378955.739211642</v>
       </c>
       <c r="O154" t="n">
         <v>-75.16876810387913</v>
@@ -11076,16 +11076,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q154" t="n">
-        <v>38.84798247931529</v>
+        <v>10.3936213811118</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S154" t="n">
         <v>102</v>
       </c>
       <c r="T154" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
@@ -11098,45 +11098,45 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>173574</v>
+        <v>173547</v>
       </c>
       <c r="C155" t="n">
-        <v>8.300283333333335</v>
+        <v>27.47895</v>
       </c>
       <c r="D155" t="n">
-        <v>6.422200000000001</v>
+        <v>8.0273</v>
       </c>
       <c r="E155" t="n">
-        <v>-75.0239</v>
+        <v>-75.2167</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1120885352215798</v>
+        <v>0.1401028150453409</v>
       </c>
       <c r="G155" t="n">
-        <v>-1.309414072686974</v>
+        <v>-1.312779067484819</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2016-10-31T17:54:41.983000</t>
+          <t>2016-10-31T17:35:31.263000</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>-1</v>
       </c>
       <c r="J155" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K155" t="n">
-        <v>-38</v>
+        <v>-32</v>
       </c>
       <c r="L155" t="n">
         <v>2</v>
       </c>
       <c r="M155" t="n">
-        <v>895300.1769995773</v>
+        <v>874412.0859915719</v>
       </c>
       <c r="N155" t="n">
-        <v>1202024.165489327</v>
+        <v>1379612.878575574</v>
       </c>
       <c r="O155" t="n">
         <v>-75.16876810387913</v>
@@ -11145,16 +11145,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q155" t="n">
-        <v>39.60951308735037</v>
+        <v>11.23301989930796</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S155" t="n">
         <v>102</v>
       </c>
       <c r="T155" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
@@ -11167,45 +11167,45 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>173575</v>
+        <v>173548</v>
       </c>
       <c r="C156" t="n">
-        <v>8.297616666666666</v>
+        <v>27.47716666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>6.412000000000001</v>
+        <v>8.018700000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>-75.02549999999999</v>
+        <v>-75.1969</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1119105116378764</v>
+        <v>0.1399527167296693</v>
       </c>
       <c r="G156" t="n">
-        <v>-1.309441997955006</v>
+        <v>-1.312433492292924</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2016-10-31T17:54:42.143000</t>
+          <t>2016-10-31T17:35:31.370000</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>-1</v>
       </c>
       <c r="J156" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K156" t="n">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="L156" t="n">
         <v>2</v>
       </c>
       <c r="M156" t="n">
-        <v>895121.0659685954</v>
+        <v>876592.5734729628</v>
       </c>
       <c r="N156" t="n">
-        <v>1200896.3421878</v>
+        <v>1378655.568639466</v>
       </c>
       <c r="O156" t="n">
         <v>-75.16876810387913</v>
@@ -11214,16 +11214,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q156" t="n">
-        <v>39.80327701050099</v>
+        <v>10.13655953230492</v>
       </c>
       <c r="R156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S156" t="n">
         <v>102</v>
       </c>
       <c r="T156" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
@@ -11236,45 +11236,45 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>173576</v>
+        <v>173549</v>
       </c>
       <c r="C157" t="n">
-        <v>7.538716666666668</v>
+        <v>27.47255</v>
       </c>
       <c r="D157" t="n">
-        <v>7.919</v>
+        <v>8.0421</v>
       </c>
       <c r="E157" t="n">
-        <v>-75.11730000000001</v>
+        <v>-75.33580000000001</v>
       </c>
       <c r="F157" t="n">
-        <v>0.138212623465431</v>
+        <v>0.1403611237746359</v>
       </c>
       <c r="G157" t="n">
-        <v>-1.311044210208337</v>
+        <v>-1.314857754623944</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2016-10-31T17:55:27.677000</t>
+          <t>2016-10-31T17:35:31.647000</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>-1</v>
       </c>
       <c r="J157" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K157" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="L157" t="n">
         <v>2</v>
       </c>
       <c r="M157" t="n">
-        <v>885341.2977183813</v>
+        <v>861285.2292928436</v>
       </c>
       <c r="N157" t="n">
-        <v>1367604.356104795</v>
+        <v>1381288.453388483</v>
       </c>
       <c r="O157" t="n">
         <v>-75.16876810387913</v>
@@ -11283,7 +11283,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q157" t="n">
-        <v>8.908402413894203</v>
+        <v>21.28029521468813</v>
       </c>
       <c r="R157" t="n">
         <v>1</v>
@@ -11305,45 +11305,45 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>173577</v>
+        <v>173550</v>
       </c>
       <c r="C158" t="n">
-        <v>7.537666666666667</v>
+        <v>27.47083333333333</v>
       </c>
       <c r="D158" t="n">
-        <v>7.9252</v>
+        <v>8.0192</v>
       </c>
       <c r="E158" t="n">
-        <v>-75.19450000000002</v>
+        <v>-75.1986</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1383208338790546</v>
+        <v>0.1399614433759293</v>
       </c>
       <c r="G158" t="n">
-        <v>-1.312391604390876</v>
+        <v>-1.312463162890208</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2016-10-31T17:55:27.740000</t>
+          <t>2016-10-31T17:35:31.750000</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>-1</v>
       </c>
       <c r="J158" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K158" t="n">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="L158" t="n">
         <v>2</v>
       </c>
       <c r="M158" t="n">
-        <v>876829.2265989316</v>
+        <v>876405.2847627762</v>
       </c>
       <c r="N158" t="n">
-        <v>1368312.253664235</v>
+        <v>1378711.388119805</v>
       </c>
       <c r="O158" t="n">
         <v>-75.16876810387913</v>
@@ -11352,7 +11352,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q158" t="n">
-        <v>7.537056756401768</v>
+        <v>10.20992278909788</v>
       </c>
       <c r="R158" t="n">
         <v>1</v>
@@ -11374,45 +11374,45 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>173578</v>
+        <v>173551</v>
       </c>
       <c r="C159" t="n">
-        <v>7.53605</v>
+        <v>27.47011666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>7.9151</v>
+        <v>8.038500000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>-75.1014</v>
+        <v>-75.2544</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1381445556246032</v>
+        <v>0.1402982919215642</v>
       </c>
       <c r="G159" t="n">
-        <v>-1.310766702857269</v>
+        <v>-1.313437056612821</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2016-10-31T17:55:27.837000</t>
+          <t>2016-10-31T17:35:31.793000</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>-1</v>
       </c>
       <c r="J159" t="n">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="K159" t="n">
-        <v>-31</v>
+        <v>-193</v>
       </c>
       <c r="L159" t="n">
         <v>2</v>
       </c>
       <c r="M159" t="n">
-        <v>887093.7236309041</v>
+        <v>870258.9263616905</v>
       </c>
       <c r="N159" t="n">
-        <v>1367168.616384929</v>
+        <v>1380863.539956529</v>
       </c>
       <c r="O159" t="n">
         <v>-75.16876810387913</v>
@@ -11421,7 +11421,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q159" t="n">
-        <v>10.07171465590672</v>
+        <v>13.96689456880237</v>
       </c>
       <c r="R159" t="n">
         <v>1</v>
@@ -11443,45 +11443,45 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>173579</v>
+        <v>173552</v>
       </c>
       <c r="C160" t="n">
-        <v>5.447333333333334</v>
+        <v>27.46033333333333</v>
       </c>
       <c r="D160" t="n">
-        <v>6.7357</v>
+        <v>8.041500000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>-74.3758</v>
+        <v>-75.3318</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1175601424265821</v>
+        <v>0.140350651799124</v>
       </c>
       <c r="G160" t="n">
-        <v>-1.298102593804798</v>
+        <v>-1.314787941453864</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2016-10-31T17:57:33.160000</t>
+          <t>2016-10-31T17:35:32.380000</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>-1</v>
       </c>
       <c r="J160" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K160" t="n">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="L160" t="n">
         <v>2</v>
       </c>
       <c r="M160" t="n">
-        <v>967021.8065824424</v>
+        <v>861726.0563213282</v>
       </c>
       <c r="N160" t="n">
-        <v>1236607.113896684</v>
+        <v>1381220.727306769</v>
       </c>
       <c r="O160" t="n">
         <v>-75.16876810387913</v>
@@ -11490,16 +11490,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q160" t="n">
-        <v>92.74811242921913</v>
+        <v>20.88252425232293</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S160" t="n">
         <v>102</v>
       </c>
       <c r="T160" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -11512,45 +11512,45 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>173580</v>
+        <v>173553</v>
       </c>
       <c r="C161" t="n">
-        <v>5.443716666666668</v>
+        <v>24.81171666666667</v>
       </c>
       <c r="D161" t="n">
-        <v>6.732900000000001</v>
+        <v>7.995800000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>-74.3685</v>
+        <v>-75.16790000000002</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1175112732075262</v>
+        <v>0.1395530363309626</v>
       </c>
       <c r="G161" t="n">
-        <v>-1.297975184769403</v>
+        <v>-1.311927346809846</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2016-10-31T17:57:33.377000</t>
+          <t>2016-10-31T17:38:11.297000</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>-1</v>
       </c>
       <c r="J161" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K161" t="n">
-        <v>-27</v>
+        <v>-19</v>
       </c>
       <c r="L161" t="n">
         <v>2</v>
       </c>
       <c r="M161" t="n">
-        <v>967828.6930743596</v>
+        <v>879783.3421441291</v>
       </c>
       <c r="N161" t="n">
-        <v>1236296.972461874</v>
+        <v>1376113.87791993</v>
       </c>
       <c r="O161" t="n">
         <v>-75.16876810387913</v>
@@ -11559,16 +11559,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q161" t="n">
-        <v>93.55220068641464</v>
+        <v>8.993075419542331</v>
       </c>
       <c r="R161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S161" t="n">
         <v>102</v>
       </c>
       <c r="T161" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
@@ -11581,45 +11581,45 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>173581</v>
+        <v>173554</v>
       </c>
       <c r="C162" t="n">
-        <v>5.441783333333333</v>
+        <v>24.55788333333334</v>
       </c>
       <c r="D162" t="n">
-        <v>6.7292</v>
+        <v>7.7304</v>
       </c>
       <c r="E162" t="n">
-        <v>-74.37309999999999</v>
+        <v>-75.14319999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1174466960252024</v>
+        <v>0.1349209324961697</v>
       </c>
       <c r="G162" t="n">
-        <v>-1.298055469914995</v>
+        <v>-1.311496250484603</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2016-10-31T17:57:33.493000</t>
+          <t>2016-10-31T17:38:26.527000</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K162" t="n">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="L162" t="n">
         <v>2</v>
       </c>
       <c r="M162" t="n">
-        <v>967319.8775545623</v>
+        <v>882432.1361137803</v>
       </c>
       <c r="N162" t="n">
-        <v>1235888.091082475</v>
+        <v>1346749.89877744</v>
       </c>
       <c r="O162" t="n">
         <v>-75.16876810387913</v>
@@ -11628,7 +11628,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q162" t="n">
-        <v>93.09340342131823</v>
+        <v>3.181989570667073</v>
       </c>
       <c r="R162" t="n">
         <v>0</v>
@@ -11637,7 +11637,7 @@
         <v>102</v>
       </c>
       <c r="T162" t="n">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
@@ -11650,45 +11650,45 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>173582</v>
+        <v>173555</v>
       </c>
       <c r="C163" t="n">
-        <v>5.43695</v>
+        <v>24.06445</v>
       </c>
       <c r="D163" t="n">
-        <v>6.742999999999999</v>
+        <v>6.6548</v>
       </c>
       <c r="E163" t="n">
-        <v>-74.367</v>
+        <v>-74.49040000000002</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1176875514619777</v>
+        <v>0.1161481710617187</v>
       </c>
       <c r="G163" t="n">
-        <v>-1.297949004830623</v>
+        <v>-1.300102741127584</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2016-10-31T17:57:33.783000</t>
+          <t>2016-10-31T17:38:56.133000</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K163" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="L163" t="n">
         <v>2</v>
       </c>
       <c r="M163" t="n">
-        <v>967995.1926093992</v>
+        <v>954344.3048047328</v>
       </c>
       <c r="N163" t="n">
-        <v>1237413.842508778</v>
+        <v>1227669.429283608</v>
       </c>
       <c r="O163" t="n">
         <v>-75.16876810387913</v>
@@ -11697,7 +11697,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q163" t="n">
-        <v>93.6249666229134</v>
+        <v>81.43889364171795</v>
       </c>
       <c r="R163" t="n">
         <v>0</v>
@@ -11719,45 +11719,45 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>173583</v>
+        <v>173556</v>
       </c>
       <c r="C164" t="n">
-        <v>5.275333333333334</v>
+        <v>23.04678333333333</v>
       </c>
       <c r="D164" t="n">
-        <v>6.4565</v>
+        <v>7.9734</v>
       </c>
       <c r="E164" t="n">
-        <v>-74.9628</v>
+        <v>-75.09229999999999</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1126871831550139</v>
+        <v>0.1391620825785159</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.308347676514005</v>
+        <v>-1.310607877895338</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2016-10-31T17:57:43.480000</t>
+          <t>2016-10-31T17:39:57.193000</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>-1</v>
       </c>
       <c r="J164" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="K164" t="n">
-        <v>-17</v>
+        <v>-76</v>
       </c>
       <c r="L164" t="n">
         <v>2</v>
       </c>
       <c r="M164" t="n">
-        <v>902066.8208295108</v>
+        <v>888113.0851982319</v>
       </c>
       <c r="N164" t="n">
-        <v>1205805.699098151</v>
+        <v>1373614.853814554</v>
       </c>
       <c r="O164" t="n">
         <v>-75.16876810387913</v>
@@ -11766,16 +11766,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q164" t="n">
-        <v>42.07902955627324</v>
+        <v>11.95656954877001</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S164" t="n">
         <v>102</v>
       </c>
       <c r="T164" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -11788,45 +11788,45 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>173584</v>
+        <v>173557</v>
       </c>
       <c r="C165" t="n">
-        <v>5.268783333333333</v>
+        <v>23.03828333333333</v>
       </c>
       <c r="D165" t="n">
-        <v>6.4606</v>
+        <v>8.0084</v>
       </c>
       <c r="E165" t="n">
-        <v>-74.9645</v>
+        <v>-75.1939</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1127587416543457</v>
+        <v>0.1397729478167139</v>
       </c>
       <c r="G165" t="n">
-        <v>-1.308377347111289</v>
+        <v>-1.312381132415364</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2016-10-31T17:57:43.873000</t>
+          <t>2016-10-31T17:39:57.703000</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>-1</v>
       </c>
       <c r="J165" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K165" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="L165" t="n">
         <v>2</v>
       </c>
       <c r="M165" t="n">
-        <v>901879.5376479941</v>
+        <v>876920.2539336979</v>
       </c>
       <c r="N165" t="n">
-        <v>1206259.491667315</v>
+        <v>1377515.321646517</v>
       </c>
       <c r="O165" t="n">
         <v>-75.16876810387913</v>
@@ -11835,16 +11835,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q165" t="n">
-        <v>41.87502247110739</v>
+        <v>9.756685638964829</v>
       </c>
       <c r="R165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S165" t="n">
         <v>102</v>
       </c>
       <c r="T165" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
@@ -11857,45 +11857,45 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>173472</v>
+        <v>173558</v>
       </c>
       <c r="C166" t="n">
-        <v>86.79283333333332</v>
+        <v>20.68166666666667</v>
       </c>
       <c r="D166" t="n">
-        <v>6.7413</v>
+        <v>7.727299999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>-74.6112</v>
+        <v>-75.1318</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1176578808646938</v>
+        <v>0.1348668272893578</v>
       </c>
       <c r="G166" t="n">
-        <v>-1.302211098863993</v>
+        <v>-1.311297282949876</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2016-10-31T16:36:12.430000</t>
+          <t>2016-10-31T17:42:19.100000</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>-1</v>
       </c>
       <c r="J166" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K166" t="n">
-        <v>-45</v>
+        <v>-36</v>
       </c>
       <c r="L166" t="n">
         <v>2</v>
       </c>
       <c r="M166" t="n">
-        <v>940996.8579467835</v>
+        <v>883689.0815826523</v>
       </c>
       <c r="N166" t="n">
-        <v>1237248.604935422</v>
+        <v>1346403.869523871</v>
       </c>
       <c r="O166" t="n">
         <v>-75.16876810387913</v>
@@ -11904,7 +11904,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q166" t="n">
-        <v>67.98085746441889</v>
+        <v>4.332065589575081</v>
       </c>
       <c r="R166" t="n">
         <v>0</v>
@@ -11913,7 +11913,7 @@
         <v>102</v>
       </c>
       <c r="T166" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
@@ -11926,45 +11926,45 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>173473</v>
+        <v>173559</v>
       </c>
       <c r="C167" t="n">
-        <v>86.79166666666669</v>
+        <v>20.68055</v>
       </c>
       <c r="D167" t="n">
-        <v>6.7397</v>
+        <v>7.740399999999997</v>
       </c>
       <c r="E167" t="n">
-        <v>-74.5912</v>
+        <v>-75.1041</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1176299555966619</v>
+        <v>0.1350954654213691</v>
       </c>
       <c r="G167" t="n">
-        <v>-1.301862033013594</v>
+        <v>-1.310813826747073</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2016-10-31T16:36:12.500000</t>
+          <t>2016-10-31T17:42:19.167000</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>-1</v>
       </c>
       <c r="J167" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K167" t="n">
-        <v>-44</v>
+        <v>-35</v>
       </c>
       <c r="L167" t="n">
         <v>2</v>
       </c>
       <c r="M167" t="n">
-        <v>943207.8613612674</v>
+        <v>886748.7986137464</v>
       </c>
       <c r="N167" t="n">
-        <v>1237069.282132538</v>
+        <v>1347845.418602414</v>
       </c>
       <c r="O167" t="n">
         <v>-75.16876810387913</v>
@@ -11973,7 +11973,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q167" t="n">
-        <v>70.05520674406202</v>
+        <v>7.414685765962679</v>
       </c>
       <c r="R167" t="n">
         <v>0</v>
@@ -11982,7 +11982,7 @@
         <v>102</v>
       </c>
       <c r="T167" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
@@ -11995,45 +11995,45 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>173474</v>
+        <v>173560</v>
       </c>
       <c r="C168" t="n">
-        <v>86.79121666666668</v>
+        <v>20.11878333333334</v>
       </c>
       <c r="D168" t="n">
-        <v>6.715900000000001</v>
+        <v>6.756</v>
       </c>
       <c r="E168" t="n">
-        <v>-74.61920000000001</v>
+        <v>-74.4937</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1172145672346872</v>
+        <v>0.1179144442647369</v>
       </c>
       <c r="G168" t="n">
-        <v>-1.302350725204153</v>
+        <v>-1.3001603369929</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2016-10-31T16:36:12.527000</t>
+          <t>2016-10-31T17:42:52.873000</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>-1</v>
       </c>
       <c r="J168" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K168" t="n">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="L168" t="n">
         <v>2</v>
       </c>
       <c r="M168" t="n">
-        <v>940109.2683292866</v>
+        <v>953988.8926209896</v>
       </c>
       <c r="N168" t="n">
-        <v>1234440.482582925</v>
+        <v>1238861.673307491</v>
       </c>
       <c r="O168" t="n">
         <v>-75.16876810387913</v>
@@ -12042,7 +12042,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q168" t="n">
-        <v>67.46586537892483</v>
+        <v>80.04954888970133</v>
       </c>
       <c r="R168" t="n">
         <v>0</v>
@@ -12051,7 +12051,7 @@
         <v>102</v>
       </c>
       <c r="T168" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
@@ -12064,45 +12064,45 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>173475</v>
+        <v>173561</v>
       </c>
       <c r="C169" t="n">
-        <v>86.78755000000002</v>
+        <v>20.11138333333333</v>
       </c>
       <c r="D169" t="n">
-        <v>6.7465</v>
+        <v>6.7287</v>
       </c>
       <c r="E169" t="n">
-        <v>-74.6097</v>
+        <v>-74.50239999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1177486379857974</v>
+        <v>0.1174379693789425</v>
       </c>
       <c r="G169" t="n">
-        <v>-1.302184918925213</v>
+        <v>-1.300312180637823</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2016-10-31T16:36:12.747000</t>
+          <t>2016-10-31T17:42:53.317000</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>-1</v>
       </c>
       <c r="J169" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K169" t="n">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="L169" t="n">
         <v>2</v>
       </c>
       <c r="M169" t="n">
-        <v>941163.3247160864</v>
+        <v>953024.4394330408</v>
       </c>
       <c r="N169" t="n">
-        <v>1237823.514004211</v>
+        <v>1235843.326956503</v>
       </c>
       <c r="O169" t="n">
         <v>-75.16876810387913</v>
@@ -12111,7 +12111,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q169" t="n">
-        <v>68.07405843924298</v>
+        <v>79.40944098379555</v>
       </c>
       <c r="R169" t="n">
         <v>0</v>
@@ -12120,7 +12120,7 @@
         <v>102</v>
       </c>
       <c r="T169" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
@@ -12133,45 +12133,45 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>173476</v>
+        <v>173562</v>
       </c>
       <c r="C170" t="n">
-        <v>82.56866666666666</v>
+        <v>17.50071666666667</v>
       </c>
       <c r="D170" t="n">
-        <v>6.741900000000001</v>
+        <v>6.4273</v>
       </c>
       <c r="E170" t="n">
-        <v>-74.6421</v>
+        <v>-75.04649999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1176683528402057</v>
+        <v>0.1121775470134315</v>
       </c>
       <c r="G170" t="n">
-        <v>-1.302750405602859</v>
+        <v>-1.309808517097924</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2016-10-31T16:40:25.880000</t>
+          <t>2016-10-31T17:45:29.957000</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>-1</v>
       </c>
       <c r="J170" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="K170" t="n">
-        <v>-98</v>
+        <v>-9</v>
       </c>
       <c r="L170" t="n">
         <v>2</v>
       </c>
       <c r="M170" t="n">
-        <v>937580.6328021731</v>
+        <v>892800.7641702674</v>
       </c>
       <c r="N170" t="n">
-        <v>1237318.805545436</v>
+        <v>1202592.919791043</v>
       </c>
       <c r="O170" t="n">
         <v>-75.16876810387913</v>
@@ -12180,7 +12180,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q170" t="n">
-        <v>64.81969800893246</v>
+        <v>38.48653973497795</v>
       </c>
       <c r="R170" t="n">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>102</v>
       </c>
       <c r="T170" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
@@ -12202,45 +12202,45 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>173477</v>
+        <v>173563</v>
       </c>
       <c r="C171" t="n">
-        <v>82.56766666666667</v>
+        <v>16.83578333333334</v>
       </c>
       <c r="D171" t="n">
-        <v>6.7332</v>
+        <v>7.892099999999999</v>
       </c>
       <c r="E171" t="n">
-        <v>-74.6347</v>
+        <v>-75.23990000000002</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1175165091952822</v>
+        <v>0.1377431298966445</v>
       </c>
       <c r="G171" t="n">
-        <v>-1.302621251238212</v>
+        <v>-1.313183983871282</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2016-10-31T16:40:25.940000</t>
+          <t>2016-10-31T17:46:09.853000</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>-1</v>
       </c>
       <c r="J171" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K171" t="n">
-        <v>-20</v>
+        <v>-81</v>
       </c>
       <c r="L171" t="n">
         <v>2</v>
       </c>
       <c r="M171" t="n">
-        <v>938397.679065319</v>
+        <v>871812.0919032644</v>
       </c>
       <c r="N171" t="n">
-        <v>1236355.69154355</v>
+        <v>1364664.553341063</v>
       </c>
       <c r="O171" t="n">
         <v>-75.16876810387913</v>
@@ -12249,16 +12249,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q171" t="n">
-        <v>65.67816036356</v>
+        <v>9.960308802069482</v>
       </c>
       <c r="R171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S171" t="n">
         <v>102</v>
       </c>
       <c r="T171" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
@@ -12271,63 +12271,63 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>173478</v>
+        <v>173564</v>
       </c>
       <c r="C172" t="n">
-        <v>80.19438333333333</v>
+        <v>15.39128333333334</v>
       </c>
       <c r="D172" t="n">
-        <v>6.8859</v>
+        <v>7.9926</v>
       </c>
       <c r="E172" t="n">
-        <v>-74.5545</v>
+        <v>-75.1442</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1201816269630775</v>
+        <v>0.1394971857948988</v>
       </c>
       <c r="G172" t="n">
-        <v>-1.301221497178112</v>
+        <v>-1.311513703777123</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2016-10-31T16:42:48.337000</t>
+          <t>2016-10-31T17:47:36.523000</t>
         </is>
       </c>
       <c r="I172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>40</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-40</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>882395.6662277613</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1375753.068692349</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-75.16876810387913</v>
+      </c>
+      <c r="P172" t="n">
+        <v>7.681211016631909</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>9.320574070376679</v>
+      </c>
+      <c r="R172" t="n">
         <v>1</v>
       </c>
-      <c r="J172" t="n">
-        <v>12</v>
-      </c>
-      <c r="K172" t="n">
-        <v>12</v>
-      </c>
-      <c r="L172" t="n">
-        <v>2</v>
-      </c>
-      <c r="M172" t="n">
-        <v>947281.3583803762</v>
-      </c>
-      <c r="N172" t="n">
-        <v>1253233.957249296</v>
-      </c>
-      <c r="O172" t="n">
-        <v>-75.16876810387913</v>
-      </c>
-      <c r="P172" t="n">
-        <v>7.681211016631909</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>72.37781372628908</v>
-      </c>
-      <c r="R172" t="n">
-        <v>0</v>
-      </c>
       <c r="S172" t="n">
         <v>102</v>
       </c>
       <c r="T172" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
@@ -12340,45 +12340,45 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>173479</v>
+        <v>173565</v>
       </c>
       <c r="C173" t="n">
-        <v>79.87555</v>
+        <v>15.39021666666667</v>
       </c>
       <c r="D173" t="n">
-        <v>6.826000000000001</v>
+        <v>7.969899999999999</v>
       </c>
       <c r="E173" t="n">
-        <v>-74.5735</v>
+        <v>-75.13760000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1191361747411329</v>
+        <v>0.1391009960546961</v>
       </c>
       <c r="G173" t="n">
-        <v>-1.301553109735991</v>
+        <v>-1.311398512046491</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2016-10-31T16:43:07.467000</t>
+          <t>2016-10-31T17:47:36.587000</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>-1</v>
       </c>
       <c r="J173" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K173" t="n">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="L173" t="n">
         <v>2</v>
       </c>
       <c r="M173" t="n">
-        <v>945174.5233591628</v>
+        <v>883116.9549771725</v>
       </c>
       <c r="N173" t="n">
-        <v>1246611.505309315</v>
+        <v>1373240.252394475</v>
       </c>
       <c r="O173" t="n">
         <v>-75.16876810387913</v>
@@ -12387,16 +12387,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q173" t="n">
-        <v>70.96156828808911</v>
+        <v>8.963149890206724</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S173" t="n">
         <v>102</v>
       </c>
       <c r="T173" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -12409,45 +12409,45 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>173480</v>
+        <v>173566</v>
       </c>
       <c r="C174" t="n">
-        <v>77.56395000000001</v>
+        <v>15.38921666666667</v>
       </c>
       <c r="D174" t="n">
-        <v>6.8249</v>
+        <v>7.8318</v>
       </c>
       <c r="E174" t="n">
-        <v>-74.57510000000001</v>
+        <v>-75.1267</v>
       </c>
       <c r="F174" t="n">
-        <v>0.119116976119361</v>
+        <v>0.1366906963576919</v>
       </c>
       <c r="G174" t="n">
-        <v>-1.301581035004023</v>
+        <v>-1.311208271158024</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2016-10-31T16:45:26.163000</t>
+          <t>2016-10-31T17:47:36.647000</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>-1</v>
       </c>
       <c r="J174" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K174" t="n">
-        <v>-37</v>
+        <v>-30</v>
       </c>
       <c r="L174" t="n">
         <v>2</v>
       </c>
       <c r="M174" t="n">
-        <v>944997.5342524005</v>
+        <v>884280.4365381384</v>
       </c>
       <c r="N174" t="n">
-        <v>1246490.034135762</v>
+        <v>1357961.498234114</v>
       </c>
       <c r="O174" t="n">
         <v>-75.16876810387913</v>
@@ -12456,16 +12456,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q174" t="n">
-        <v>70.80523072664542</v>
+        <v>6.37407897834846</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S174" t="n">
         <v>102</v>
       </c>
       <c r="T174" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
@@ -12478,45 +12478,45 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>173481</v>
+        <v>173567</v>
       </c>
       <c r="C175" t="n">
-        <v>77.56195000000002</v>
+        <v>15.01261666666667</v>
       </c>
       <c r="D175" t="n">
-        <v>6.8093</v>
+        <v>6.7882</v>
       </c>
       <c r="E175" t="n">
-        <v>-74.6358</v>
+        <v>-74.4237</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1188447047560499</v>
+        <v>0.1184764402838791</v>
       </c>
       <c r="G175" t="n">
-        <v>-1.302640449859984</v>
+        <v>-1.298938606516504</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2016-10-31T16:45:26.283000</t>
+          <t>2016-10-31T17:47:59.243000</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K175" t="n">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="L175" t="n">
         <v>2</v>
       </c>
       <c r="M175" t="n">
-        <v>938285.7305213688</v>
+        <v>961730.2117979978</v>
       </c>
       <c r="N175" t="n">
-        <v>1244772.098599075</v>
+        <v>1242416.668779048</v>
       </c>
       <c r="O175" t="n">
         <v>-75.16876810387913</v>
@@ -12525,7 +12525,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q175" t="n">
-        <v>64.66698965839542</v>
+        <v>87.17452587391762</v>
       </c>
       <c r="R175" t="n">
         <v>0</v>
@@ -12534,7 +12534,7 @@
         <v>102</v>
       </c>
       <c r="T175" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
@@ -12547,45 +12547,45 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>173482</v>
+        <v>173568</v>
       </c>
       <c r="C176" t="n">
-        <v>76.22321666666667</v>
+        <v>14.30488333333333</v>
       </c>
       <c r="D176" t="n">
-        <v>6.785100000000001</v>
+        <v>7.687200000000002</v>
       </c>
       <c r="E176" t="n">
-        <v>-74.54620000000001</v>
+        <v>-75.092</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1184223350770672</v>
+        <v>0.1341669502593081</v>
       </c>
       <c r="G176" t="n">
-        <v>-1.301076634850197</v>
+        <v>-1.310602641907582</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2016-10-31T16:46:46.607000</t>
+          <t>2016-10-31T17:48:41.707000</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J176" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K176" t="n">
-        <v>9</v>
+        <v>-39</v>
       </c>
       <c r="L176" t="n">
         <v>2</v>
       </c>
       <c r="M176" t="n">
-        <v>948187.8664442743</v>
+        <v>888069.7913360646</v>
       </c>
       <c r="N176" t="n">
-        <v>1242085.212044154</v>
+        <v>1341957.704641638</v>
       </c>
       <c r="O176" t="n">
         <v>-75.16876810387913</v>
@@ -12594,7 +12594,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q176" t="n">
-        <v>74.24102156163055</v>
+        <v>8.570548350505415</v>
       </c>
       <c r="R176" t="n">
         <v>0</v>
@@ -12603,7 +12603,7 @@
         <v>102</v>
       </c>
       <c r="T176" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -12616,63 +12616,63 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>173483</v>
+        <v>173569</v>
       </c>
       <c r="C177" t="n">
-        <v>76.14505000000003</v>
+        <v>12.60071666666667</v>
       </c>
       <c r="D177" t="n">
-        <v>6.6954</v>
+        <v>8.031700000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>-74.6803</v>
+        <v>-75.1831</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1168567747380283</v>
+        <v>0.1401796095324286</v>
       </c>
       <c r="G177" t="n">
-        <v>-1.303417121377121</v>
+        <v>-1.312192636856149</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2016-10-31T16:46:51.297000</t>
+          <t>2016-10-31T17:50:23.957000</t>
         </is>
       </c>
       <c r="I177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>62</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-62</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>878118.0132678949</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1380089.452847132</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-75.16876810387913</v>
+      </c>
+      <c r="P177" t="n">
+        <v>7.681211016631909</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>10.14071341656276</v>
+      </c>
+      <c r="R177" t="n">
         <v>1</v>
       </c>
-      <c r="J177" t="n">
-        <v>16</v>
-      </c>
-      <c r="K177" t="n">
-        <v>16</v>
-      </c>
-      <c r="L177" t="n">
-        <v>2</v>
-      </c>
-      <c r="M177" t="n">
-        <v>933350.8937417704</v>
-      </c>
-      <c r="N177" t="n">
-        <v>1232181.16747737</v>
-      </c>
-      <c r="O177" t="n">
-        <v>-75.16876810387913</v>
-      </c>
-      <c r="P177" t="n">
-        <v>7.681211016631909</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>61.58056672075089</v>
-      </c>
-      <c r="R177" t="n">
-        <v>0</v>
-      </c>
       <c r="S177" t="n">
         <v>102</v>
       </c>
       <c r="T177" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -12685,45 +12685,45 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>173484</v>
+        <v>173570</v>
       </c>
       <c r="C178" t="n">
-        <v>75.95650000000001</v>
+        <v>12.44383333333334</v>
       </c>
       <c r="D178" t="n">
-        <v>6.831300000000001</v>
+        <v>6.7475</v>
       </c>
       <c r="E178" t="n">
-        <v>-74.562</v>
+        <v>-74.4384</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1192286771914886</v>
+        <v>0.1177660912783174</v>
       </c>
       <c r="G178" t="n">
-        <v>-1.301352396872012</v>
+        <v>-1.299195169916547</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2016-10-31T16:47:02.610000</t>
+          <t>2016-10-31T17:50:33.370000</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K178" t="n">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="L178" t="n">
         <v>2</v>
       </c>
       <c r="M178" t="n">
-        <v>946446.3181843759</v>
+        <v>960101.83921135</v>
       </c>
       <c r="N178" t="n">
-        <v>1247196.359879739</v>
+        <v>1237916.765907738</v>
       </c>
       <c r="O178" t="n">
         <v>-75.16876810387913</v>
@@ -12732,7 +12732,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q178" t="n">
-        <v>72.1147013555605</v>
+        <v>85.97811321536099</v>
       </c>
       <c r="R178" t="n">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>102</v>
       </c>
       <c r="T178" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
@@ -12754,45 +12754,45 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>173485</v>
+        <v>173571</v>
       </c>
       <c r="C179" t="n">
-        <v>71.51888333333333</v>
+        <v>10.72583333333333</v>
       </c>
       <c r="D179" t="n">
-        <v>6.8239</v>
+        <v>6.4324</v>
       </c>
       <c r="E179" t="n">
-        <v>-74.55199999999998</v>
+        <v>-75.03270000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1190995228268411</v>
+        <v>0.1122665588052833</v>
       </c>
       <c r="G179" t="n">
-        <v>-1.301177863946812</v>
+        <v>-1.309567661661149</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2016-10-31T16:51:28.867000</t>
+          <t>2016-10-31T17:52:16.450000</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>-1</v>
       </c>
       <c r="J179" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K179" t="n">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="L179" t="n">
         <v>2</v>
       </c>
       <c r="M179" t="n">
-        <v>947550.8946353366</v>
+        <v>894328.6461112548</v>
       </c>
       <c r="N179" t="n">
-        <v>1246376.866291726</v>
+        <v>1203154.126299431</v>
       </c>
       <c r="O179" t="n">
         <v>-75.16876810387913</v>
@@ -12801,7 +12801,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q179" t="n">
-        <v>73.23993157820458</v>
+        <v>38.93938673105738</v>
       </c>
       <c r="R179" t="n">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>102</v>
       </c>
       <c r="T179" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
@@ -12823,45 +12823,45 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>173486</v>
+        <v>173572</v>
       </c>
       <c r="C180" t="n">
-        <v>71.51838333333333</v>
+        <v>9.776450000000001</v>
       </c>
       <c r="D180" t="n">
-        <v>6.8723</v>
+        <v>6.401</v>
       </c>
       <c r="E180" t="n">
-        <v>-74.5348</v>
+        <v>-75.03699999999998</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1199442621848063</v>
+        <v>0.111718525420157</v>
       </c>
       <c r="G180" t="n">
-        <v>-1.30087766731547</v>
+        <v>-1.309642710818985</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2016-10-31T16:51:28.897000</t>
+          <t>2016-10-31T17:53:13.413000</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>-1</v>
       </c>
       <c r="J180" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K180" t="n">
-        <v>-10</v>
+        <v>-44</v>
       </c>
       <c r="L180" t="n">
         <v>2</v>
       </c>
       <c r="M180" t="n">
-        <v>949457.2716898714</v>
+        <v>893846.4001373132</v>
       </c>
       <c r="N180" t="n">
-        <v>1251727.755177798</v>
+        <v>1199682.071167648</v>
       </c>
       <c r="O180" t="n">
         <v>-75.16876810387913</v>
@@ -12870,7 +12870,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q180" t="n">
-        <v>74.59311030063222</v>
+        <v>39.58545733568365</v>
       </c>
       <c r="R180" t="n">
         <v>0</v>
@@ -12879,7 +12879,7 @@
         <v>102</v>
       </c>
       <c r="T180" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
@@ -12892,45 +12892,45 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>173487</v>
+        <v>173573</v>
       </c>
       <c r="C181" t="n">
-        <v>71.51411666666669</v>
+        <v>8.30245</v>
       </c>
       <c r="D181" t="n">
-        <v>6.850000000000001</v>
+        <v>6.4242</v>
       </c>
       <c r="E181" t="n">
-        <v>-74.5442</v>
+        <v>-75.0398</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1195550537616115</v>
+        <v>0.1121234418066197</v>
       </c>
       <c r="G181" t="n">
-        <v>-1.301041728265157</v>
+        <v>-1.309691580038041</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2016-10-31T16:51:29.153000</t>
+          <t>2016-10-31T17:54:41.853000</t>
         </is>
       </c>
       <c r="I181" t="n">
         <v>-1</v>
       </c>
       <c r="J181" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K181" t="n">
-        <v>-8</v>
+        <v>-31</v>
       </c>
       <c r="L181" t="n">
         <v>2</v>
       </c>
       <c r="M181" t="n">
-        <v>948415.9038655588</v>
+        <v>893541.406806318</v>
       </c>
       <c r="N181" t="n">
-        <v>1249262.51784635</v>
+        <v>1202248.650281571</v>
       </c>
       <c r="O181" t="n">
         <v>-75.16876810387913</v>
@@ -12939,7 +12939,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q181" t="n">
-        <v>73.80739780131945</v>
+        <v>38.84798247931529</v>
       </c>
       <c r="R181" t="n">
         <v>0</v>
@@ -12948,7 +12948,7 @@
         <v>102</v>
       </c>
       <c r="T181" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U181" t="inlineStr">
         <is>
@@ -12961,45 +12961,45 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>173488</v>
+        <v>173574</v>
       </c>
       <c r="C182" t="n">
-        <v>70.77371666666667</v>
+        <v>8.300283333333335</v>
       </c>
       <c r="D182" t="n">
-        <v>6.799</v>
+        <v>6.422200000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>-74.55370000000001</v>
+        <v>-75.0239</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1186649358430945</v>
+        <v>0.1120885352215798</v>
       </c>
       <c r="G182" t="n">
-        <v>-1.301207534544096</v>
+        <v>-1.309414072686974</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2016-10-31T16:52:13.577000</t>
+          <t>2016-10-31T17:54:41.983000</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J182" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K182" t="n">
-        <v>10</v>
+        <v>-38</v>
       </c>
       <c r="L182" t="n">
         <v>2</v>
       </c>
       <c r="M182" t="n">
-        <v>947360.262368964</v>
+        <v>895300.1769995773</v>
       </c>
       <c r="N182" t="n">
-        <v>1243623.270062962</v>
+        <v>1202024.165489327</v>
       </c>
       <c r="O182" t="n">
         <v>-75.16876810387913</v>
@@ -13008,7 +13008,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q182" t="n">
-        <v>73.31271090316417</v>
+        <v>39.60951308735037</v>
       </c>
       <c r="R182" t="n">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>102</v>
       </c>
       <c r="T182" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -13030,45 +13030,45 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>173489</v>
+        <v>173575</v>
       </c>
       <c r="C183" t="n">
-        <v>69.88566666666667</v>
+        <v>8.297616666666666</v>
       </c>
       <c r="D183" t="n">
-        <v>6.8531</v>
+        <v>6.412000000000001</v>
       </c>
       <c r="E183" t="n">
-        <v>-74.5528</v>
+        <v>-75.02549999999999</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1196091589684234</v>
+        <v>0.1119105116378764</v>
       </c>
       <c r="G183" t="n">
-        <v>-1.301191826580829</v>
+        <v>-1.309441997955006</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2016-10-31T16:53:06.860000</t>
+          <t>2016-10-31T17:54:42.143000</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>-1</v>
       </c>
       <c r="J183" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="K183" t="n">
-        <v>-65</v>
+        <v>-17</v>
       </c>
       <c r="L183" t="n">
         <v>2</v>
       </c>
       <c r="M183" t="n">
-        <v>947465.6525935049</v>
+        <v>895121.0659685954</v>
       </c>
       <c r="N183" t="n">
-        <v>1249606.290655948</v>
+        <v>1200896.3421878</v>
       </c>
       <c r="O183" t="n">
         <v>-75.16876810387913</v>
@@ -13077,7 +13077,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q183" t="n">
-        <v>72.86926655621207</v>
+        <v>39.80327701050099</v>
       </c>
       <c r="R183" t="n">
         <v>0</v>
@@ -13086,7 +13086,7 @@
         <v>102</v>
       </c>
       <c r="T183" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -13099,63 +13099,63 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>173490</v>
+        <v>173576</v>
       </c>
       <c r="C184" t="n">
-        <v>69.289</v>
+        <v>7.538716666666668</v>
       </c>
       <c r="D184" t="n">
-        <v>6.808500000000001</v>
+        <v>7.919</v>
       </c>
       <c r="E184" t="n">
-        <v>-74.5398</v>
+        <v>-75.11730000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>0.118830742122034</v>
+        <v>0.138212623465431</v>
       </c>
       <c r="G184" t="n">
-        <v>-1.300964933778069</v>
+        <v>-1.311044210208337</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2016-10-31T16:53:42.660000</t>
+          <t>2016-10-31T17:55:27.677000</t>
         </is>
       </c>
       <c r="I184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>25</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-25</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>885341.2977183813</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1367604.356104795</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-75.16876810387913</v>
+      </c>
+      <c r="P184" t="n">
+        <v>7.681211016631909</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>8.908402413894203</v>
+      </c>
+      <c r="R184" t="n">
         <v>1</v>
       </c>
-      <c r="J184" t="n">
-        <v>9</v>
-      </c>
-      <c r="K184" t="n">
-        <v>9</v>
-      </c>
-      <c r="L184" t="n">
-        <v>2</v>
-      </c>
-      <c r="M184" t="n">
-        <v>948897.8485369348</v>
-      </c>
-      <c r="N184" t="n">
-        <v>1244672.417356263</v>
-      </c>
-      <c r="O184" t="n">
-        <v>-75.16876810387913</v>
-      </c>
-      <c r="P184" t="n">
-        <v>7.681211016631909</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>74.67646591027493</v>
-      </c>
-      <c r="R184" t="n">
-        <v>0</v>
-      </c>
       <c r="S184" t="n">
         <v>102</v>
       </c>
       <c r="T184" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
@@ -13168,45 +13168,45 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>173491</v>
+        <v>173577</v>
       </c>
       <c r="C185" t="n">
-        <v>68.58588333333334</v>
+        <v>7.537666666666667</v>
       </c>
       <c r="D185" t="n">
-        <v>6.8362</v>
+        <v>7.9252</v>
       </c>
       <c r="E185" t="n">
-        <v>-74.5472</v>
+        <v>-75.19450000000002</v>
       </c>
       <c r="F185" t="n">
-        <v>0.1193141983248363</v>
+        <v>0.1383208338790546</v>
       </c>
       <c r="G185" t="n">
-        <v>-1.301094088142717</v>
+        <v>-1.312391604390876</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2016-10-31T16:54:24.847000</t>
+          <t>2016-10-31T17:55:27.740000</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>-1</v>
       </c>
       <c r="J185" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K185" t="n">
-        <v>-22</v>
+        <v>-32</v>
       </c>
       <c r="L185" t="n">
         <v>2</v>
       </c>
       <c r="M185" t="n">
-        <v>948082.8118787874</v>
+        <v>876829.2265989316</v>
       </c>
       <c r="N185" t="n">
-        <v>1247736.648309839</v>
+        <v>1368312.253664235</v>
       </c>
       <c r="O185" t="n">
         <v>-75.16876810387913</v>
@@ -13215,16 +13215,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q185" t="n">
-        <v>73.62418261279734</v>
+        <v>7.537056756401768</v>
       </c>
       <c r="R185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S185" t="n">
         <v>102</v>
       </c>
       <c r="T185" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
@@ -13237,45 +13237,45 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>173492</v>
+        <v>173578</v>
       </c>
       <c r="C186" t="n">
-        <v>68.58571666666667</v>
+        <v>7.53605</v>
       </c>
       <c r="D186" t="n">
-        <v>6.8572</v>
+        <v>7.9151</v>
       </c>
       <c r="E186" t="n">
-        <v>-74.5444</v>
+        <v>-75.1014</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1196807174677551</v>
+        <v>0.1381445556246032</v>
       </c>
       <c r="G186" t="n">
-        <v>-1.301045218923661</v>
+        <v>-1.310766702857269</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2016-10-31T16:54:24.857000</t>
+          <t>2016-10-31T17:55:27.837000</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>-1</v>
       </c>
       <c r="J186" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K186" t="n">
-        <v>-27</v>
+        <v>-31</v>
       </c>
       <c r="L186" t="n">
         <v>2</v>
       </c>
       <c r="M186" t="n">
-        <v>948394.5714519152</v>
+        <v>887093.7236309041</v>
       </c>
       <c r="N186" t="n">
-        <v>1250058.813828504</v>
+        <v>1367168.616384929</v>
       </c>
       <c r="O186" t="n">
         <v>-75.16876810387913</v>
@@ -13284,16 +13284,16 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q186" t="n">
-        <v>73.71753826075948</v>
+        <v>10.07171465590672</v>
       </c>
       <c r="R186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S186" t="n">
         <v>102</v>
       </c>
       <c r="T186" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
@@ -13306,45 +13306,45 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>173493</v>
+        <v>173579</v>
       </c>
       <c r="C187" t="n">
-        <v>68.58533333333334</v>
+        <v>5.447333333333334</v>
       </c>
       <c r="D187" t="n">
-        <v>6.8377</v>
+        <v>6.7357</v>
       </c>
       <c r="E187" t="n">
-        <v>-74.54640000000001</v>
+        <v>-74.3758</v>
       </c>
       <c r="F187" t="n">
-        <v>0.1193403782636163</v>
+        <v>0.1175601424265821</v>
       </c>
       <c r="G187" t="n">
-        <v>-1.301080125508701</v>
+        <v>-1.298102593804798</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2016-10-31T16:54:24.880000</t>
+          <t>2016-10-31T17:57:33.160000</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>-1</v>
       </c>
       <c r="J187" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K187" t="n">
-        <v>-13</v>
+        <v>-33</v>
       </c>
       <c r="L187" t="n">
         <v>2</v>
       </c>
       <c r="M187" t="n">
-        <v>948171.4030442628</v>
+        <v>967021.8065824424</v>
       </c>
       <c r="N187" t="n">
-        <v>1247902.452546963</v>
+        <v>1236607.113896684</v>
       </c>
       <c r="O187" t="n">
         <v>-75.16876810387913</v>
@@ -13353,7 +13353,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q187" t="n">
-        <v>73.69392363629807</v>
+        <v>92.74811242921913</v>
       </c>
       <c r="R187" t="n">
         <v>0</v>
@@ -13362,7 +13362,7 @@
         <v>102</v>
       </c>
       <c r="T187" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
@@ -13375,45 +13375,45 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>173494</v>
+        <v>173580</v>
       </c>
       <c r="C188" t="n">
-        <v>68.58005</v>
+        <v>5.443716666666668</v>
       </c>
       <c r="D188" t="n">
-        <v>6.8578</v>
+        <v>6.732900000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>-74.53959999999999</v>
+        <v>-74.3685</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1196911894432671</v>
+        <v>0.1175112732075262</v>
       </c>
       <c r="G188" t="n">
-        <v>-1.300961443119565</v>
+        <v>-1.297975184769403</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2016-10-31T16:54:25.197000</t>
+          <t>2016-10-31T17:57:33.377000</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>-1</v>
       </c>
       <c r="J188" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K188" t="n">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="L188" t="n">
         <v>2</v>
       </c>
       <c r="M188" t="n">
-        <v>948925.1890839108</v>
+        <v>967828.6930743596</v>
       </c>
       <c r="N188" t="n">
-        <v>1250124.656454723</v>
+        <v>1236296.972461874</v>
       </c>
       <c r="O188" t="n">
         <v>-75.16876810387913</v>
@@ -13422,7 +13422,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q188" t="n">
-        <v>74.21973397986649</v>
+        <v>93.55220068641464</v>
       </c>
       <c r="R188" t="n">
         <v>0</v>
@@ -13431,7 +13431,7 @@
         <v>102</v>
       </c>
       <c r="T188" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -13444,45 +13444,45 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>173495</v>
+        <v>173581</v>
       </c>
       <c r="C189" t="n">
-        <v>68.23100000000001</v>
+        <v>5.441783333333333</v>
       </c>
       <c r="D189" t="n">
-        <v>8.014099999999999</v>
+        <v>6.7292</v>
       </c>
       <c r="E189" t="n">
-        <v>-75.2015</v>
+        <v>-74.37309999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>0.1398724315840776</v>
+        <v>0.1174466960252024</v>
       </c>
       <c r="G189" t="n">
-        <v>-1.312513777438516</v>
+        <v>-1.298055469914995</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2016-10-31T16:54:46.140000</t>
+          <t>2016-10-31T17:57:33.493000</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>-1</v>
       </c>
       <c r="J189" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K189" t="n">
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="L189" t="n">
         <v>2</v>
       </c>
       <c r="M189" t="n">
-        <v>876083.9912204428</v>
+        <v>967319.8775545623</v>
       </c>
       <c r="N189" t="n">
-        <v>1378148.118179713</v>
+        <v>1235888.091082475</v>
       </c>
       <c r="O189" t="n">
         <v>-75.16876810387913</v>
@@ -13491,7 +13491,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q189" t="n">
-        <v>10.18310783574402</v>
+        <v>93.09340342131823</v>
       </c>
       <c r="R189" t="n">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>102</v>
       </c>
       <c r="T189" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
@@ -13513,45 +13513,45 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>173496</v>
+        <v>173582</v>
       </c>
       <c r="C190" t="n">
-        <v>68.22761666666666</v>
+        <v>5.43695</v>
       </c>
       <c r="D190" t="n">
-        <v>8.017400000000002</v>
+        <v>6.742999999999999</v>
       </c>
       <c r="E190" t="n">
-        <v>-75.2092</v>
+        <v>-74.367</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1399300274493934</v>
+        <v>0.1176875514619777</v>
       </c>
       <c r="G190" t="n">
-        <v>-1.312648167790919</v>
+        <v>-1.297949004830623</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2016-10-31T16:54:46.343000</t>
+          <t>2016-10-31T17:57:33.783000</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>-1</v>
       </c>
       <c r="J190" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K190" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="L190" t="n">
         <v>2</v>
       </c>
       <c r="M190" t="n">
-        <v>875235.9935128434</v>
+        <v>967995.1926093992</v>
       </c>
       <c r="N190" t="n">
-        <v>1378515.483721634</v>
+        <v>1237413.842508778</v>
       </c>
       <c r="O190" t="n">
         <v>-75.16876810387913</v>
@@ -13560,7 +13560,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q190" t="n">
-        <v>10.60509028694232</v>
+        <v>93.6249666229134</v>
       </c>
       <c r="R190" t="n">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>102</v>
       </c>
       <c r="T190" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
@@ -13582,45 +13582,45 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>173497</v>
+        <v>173583</v>
       </c>
       <c r="C191" t="n">
-        <v>67.41255</v>
+        <v>5.275333333333334</v>
       </c>
       <c r="D191" t="n">
-        <v>6.8442</v>
+        <v>6.4565</v>
       </c>
       <c r="E191" t="n">
-        <v>-74.55370000000001</v>
+        <v>-74.9628</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1194538246649959</v>
+        <v>0.1126871831550139</v>
       </c>
       <c r="G191" t="n">
-        <v>-1.301207534544096</v>
+        <v>-1.308347676514005</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2016-10-31T16:55:35.247000</t>
+          <t>2016-10-31T17:57:43.480000</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>-1</v>
       </c>
       <c r="J191" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K191" t="n">
-        <v>-34</v>
+        <v>-17</v>
       </c>
       <c r="L191" t="n">
         <v>2</v>
       </c>
       <c r="M191" t="n">
-        <v>947365.1972372895</v>
+        <v>902066.8208295108</v>
       </c>
       <c r="N191" t="n">
-        <v>1248622.104378217</v>
+        <v>1205805.699098151</v>
       </c>
       <c r="O191" t="n">
         <v>-75.16876810387913</v>
@@ -13629,7 +13629,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q191" t="n">
-        <v>72.8607748989123</v>
+        <v>42.07902955627324</v>
       </c>
       <c r="R191" t="n">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>102</v>
       </c>
       <c r="T191" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
@@ -13651,45 +13651,45 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>173498</v>
+        <v>173584</v>
       </c>
       <c r="C192" t="n">
-        <v>67.41145</v>
+        <v>5.268783333333333</v>
       </c>
       <c r="D192" t="n">
-        <v>6.8606</v>
+        <v>6.4606</v>
       </c>
       <c r="E192" t="n">
-        <v>-74.53699999999998</v>
+        <v>-74.9645</v>
       </c>
       <c r="F192" t="n">
-        <v>0.119740058662323</v>
+        <v>0.1127587416543457</v>
       </c>
       <c r="G192" t="n">
-        <v>-1.300916064559013</v>
+        <v>-1.308377347111289</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2016-10-31T16:55:35.313000</t>
+          <t>2016-10-31T17:57:43.873000</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>-1</v>
       </c>
       <c r="J192" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K192" t="n">
-        <v>-40</v>
+        <v>-14</v>
       </c>
       <c r="L192" t="n">
         <v>2</v>
       </c>
       <c r="M192" t="n">
-        <v>949212.8684454536</v>
+        <v>901879.5376479941</v>
       </c>
       <c r="N192" t="n">
-        <v>1250434.042535953</v>
+        <v>1206259.491667315</v>
       </c>
       <c r="O192" t="n">
         <v>-75.16876810387913</v>
@@ -13698,7 +13698,7 @@
         <v>7.681211016631909</v>
       </c>
       <c r="Q192" t="n">
-        <v>74.46871076569532</v>
+        <v>41.87502247110739</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>102</v>
       </c>
       <c r="T192" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
